--- a/CITECH-Datasets-Excel (4).xlsx
+++ b/CITECH-Datasets-Excel (4).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Documents\College\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C11110-0CCF-4916-A9E7-B8757B95301A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A3D91-38DE-4429-9FEE-323509A6EACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{605EDA67-C576-4EAB-B440-1A398C9991FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{605EDA67-C576-4EAB-B440-1A398C9991FD}"/>
   </bookViews>
   <sheets>
     <sheet name="IF FUNCTION" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="SUMIF Function" sheetId="3" r:id="rId3"/>
     <sheet name="Customer Info" sheetId="4" r:id="rId4"/>
     <sheet name="Sales Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pre Course'!$J$7:$J$44</definedName>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="1410">
   <si>
     <t>IF() FUNCTION PRACTICE</t>
   </si>
@@ -4190,6 +4191,138 @@
   </si>
   <si>
     <t>October</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>hanna</t>
+  </si>
+  <si>
+    <t>Frédérique</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Janine</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>anders</t>
+  </si>
+  <si>
+    <t>Trujillo</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>hardy</t>
+  </si>
+  <si>
+    <t>Berglund</t>
+  </si>
+  <si>
+    <t>moss</t>
+  </si>
+  <si>
+    <t>Citeaux</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Lebihan</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Ashworth</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>wang</t>
+  </si>
+  <si>
+    <t>Afonso</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Ottlieb</t>
+  </si>
+  <si>
+    <t>Labrune</t>
+  </si>
+  <si>
+    <t>devon</t>
+  </si>
+  <si>
+    <t>Mendel</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
 </sst>
 </file>
@@ -4204,7 +4337,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4313,6 +4446,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4442,7 +4587,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4522,6 +4667,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -10243,7 +10391,7 @@
   <dimension ref="A2:L272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -10305,15 +10453,15 @@
         <v>345</v>
       </c>
       <c r="G3" s="17">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="18">
         <f>SUMIF(B3:B272,G3,E3:E272)</f>
-        <v>16502</v>
+        <v>16871</v>
       </c>
       <c r="I3" s="18">
         <f>SUMIF(B3:B272,G3,D3:D272)</f>
-        <v>462056</v>
+        <v>472388</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -15304,8 +15452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98EE9EF-CFD2-4F96-BD94-4A1E5C72717F}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18303,7 +18451,7 @@
   <dimension ref="A1:H448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6"/>
@@ -18394,7 +18542,7 @@
         <v>909</v>
       </c>
       <c r="F5" s="25">
-        <f t="shared" ref="F5:F52" si="0">G5*1.25</f>
+        <f>G5*1.25</f>
         <v>1705</v>
       </c>
       <c r="G5" s="20">
@@ -18421,7 +18569,7 @@
         <v>909</v>
       </c>
       <c r="F6" s="25">
-        <f t="shared" si="0"/>
+        <f>G6*1.25</f>
         <v>1705</v>
       </c>
       <c r="G6" s="20">
@@ -18448,7 +18596,7 @@
         <v>909</v>
       </c>
       <c r="F7" s="25">
-        <f t="shared" si="0"/>
+        <f>G7*1.25</f>
         <v>1705</v>
       </c>
       <c r="G7" s="20">
@@ -18475,7 +18623,7 @@
         <v>909</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" si="0"/>
+        <f>G8*1.25</f>
         <v>1705</v>
       </c>
       <c r="G8" s="20">
@@ -18502,7 +18650,7 @@
         <v>909</v>
       </c>
       <c r="F9" s="25">
-        <f t="shared" si="0"/>
+        <f>G9*1.25</f>
         <v>9865</v>
       </c>
       <c r="G9" s="20">
@@ -18529,7 +18677,7 @@
         <v>909</v>
       </c>
       <c r="F10" s="25">
-        <f t="shared" si="0"/>
+        <f>G10*1.25</f>
         <v>5858.75</v>
       </c>
       <c r="G10" s="20">
@@ -18556,7 +18704,7 @@
         <v>909</v>
       </c>
       <c r="F11" s="25">
-        <f t="shared" si="0"/>
+        <f>G11*1.25</f>
         <v>9865</v>
       </c>
       <c r="G11" s="20">
@@ -18583,7 +18731,7 @@
         <v>909</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" si="0"/>
+        <f>G12*1.25</f>
         <v>5858.75</v>
       </c>
       <c r="G12" s="20">
@@ -18610,7 +18758,7 @@
         <v>909</v>
       </c>
       <c r="F13" s="25">
-        <f t="shared" si="0"/>
+        <f>G13*1.25</f>
         <v>5858.75</v>
       </c>
       <c r="G13" s="20">
@@ -18637,7 +18785,7 @@
         <v>909</v>
       </c>
       <c r="F14" s="25">
-        <f t="shared" si="0"/>
+        <f>G14*1.25</f>
         <v>5858.75</v>
       </c>
       <c r="G14" s="20">
@@ -18664,7 +18812,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="25">
-        <f t="shared" si="0"/>
+        <f>G15*1.25</f>
         <v>11190</v>
       </c>
       <c r="G15" s="20">
@@ -18691,7 +18839,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="25">
-        <f t="shared" si="0"/>
+        <f>G16*1.25</f>
         <v>11190</v>
       </c>
       <c r="G16" s="20">
@@ -18718,7 +18866,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="25">
-        <f t="shared" si="0"/>
+        <f>G17*1.25</f>
         <v>9865</v>
       </c>
       <c r="G17" s="20">
@@ -18745,7 +18893,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="25">
-        <f t="shared" si="0"/>
+        <f>G18*1.25</f>
         <v>9982.5</v>
       </c>
       <c r="G18" s="20">
@@ -18772,7 +18920,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="0"/>
+        <f>G19*1.25</f>
         <v>9865</v>
       </c>
       <c r="G19" s="20">
@@ -18799,7 +18947,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="25">
-        <f t="shared" si="0"/>
+        <f>G20*1.25</f>
         <v>9982.5</v>
       </c>
       <c r="G20" s="20">
@@ -18826,7 +18974,7 @@
         <v>909</v>
       </c>
       <c r="F21" s="25">
-        <f t="shared" si="0"/>
+        <f>G21*1.25</f>
         <v>1972.5</v>
       </c>
       <c r="G21" s="20">
@@ -18853,7 +19001,7 @@
         <v>909</v>
       </c>
       <c r="F22" s="25">
-        <f t="shared" si="0"/>
+        <f>G22*1.25</f>
         <v>1972.5</v>
       </c>
       <c r="G22" s="20">
@@ -18880,7 +19028,7 @@
         <v>36</v>
       </c>
       <c r="F23" s="25">
-        <f t="shared" si="0"/>
+        <f>G23*1.25</f>
         <v>1972.5</v>
       </c>
       <c r="G23" s="20">
@@ -18907,7 +19055,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="0"/>
+        <f>G24*1.25</f>
         <v>1972.5</v>
       </c>
       <c r="G24" s="20">
@@ -18934,7 +19082,7 @@
         <v>900</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" si="0"/>
+        <f>G25*1.25</f>
         <v>1972.5</v>
       </c>
       <c r="G25" s="20">
@@ -18961,7 +19109,7 @@
         <v>900</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="0"/>
+        <f>G26*1.25</f>
         <v>1972.5</v>
       </c>
       <c r="G26" s="20">
@@ -18988,7 +19136,7 @@
         <v>36</v>
       </c>
       <c r="F27" s="25">
-        <f t="shared" si="0"/>
+        <f>G27*1.25</f>
         <v>7327.5</v>
       </c>
       <c r="G27" s="20">
@@ -19015,7 +19163,7 @@
         <v>36</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" si="0"/>
+        <f>G28*1.25</f>
         <v>9268.75</v>
       </c>
       <c r="G28" s="20">
@@ -19042,7 +19190,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" si="0"/>
+        <f>G29*1.25</f>
         <v>12182.5</v>
       </c>
       <c r="G29" s="20">
@@ -19069,7 +19217,7 @@
         <v>36</v>
       </c>
       <c r="F30" s="25">
-        <f t="shared" si="0"/>
+        <f>G30*1.25</f>
         <v>7327.5</v>
       </c>
       <c r="G30" s="20">
@@ -19096,7 +19244,7 @@
         <v>36</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" si="0"/>
+        <f>G31*1.25</f>
         <v>9268.75</v>
       </c>
       <c r="G31" s="20">
@@ -19123,7 +19271,7 @@
         <v>36</v>
       </c>
       <c r="F32" s="25">
-        <f t="shared" si="0"/>
+        <f>G32*1.25</f>
         <v>12182.5</v>
       </c>
       <c r="G32" s="20">
@@ -19150,7 +19298,7 @@
         <v>900</v>
       </c>
       <c r="F33" s="25">
-        <f t="shared" si="0"/>
+        <f>G33*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G33" s="20">
@@ -19177,7 +19325,7 @@
         <v>900</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" si="0"/>
+        <f>G34*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G34" s="20">
@@ -19204,7 +19352,7 @@
         <v>909</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" si="0"/>
+        <f>G35*1.25</f>
         <v>7360</v>
       </c>
       <c r="G35" s="20">
@@ -19231,7 +19379,7 @@
         <v>909</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="0"/>
+        <f>G36*1.25</f>
         <v>7360</v>
       </c>
       <c r="G36" s="20">
@@ -19258,7 +19406,7 @@
         <v>900</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" si="0"/>
+        <f>G37*1.25</f>
         <v>7360</v>
       </c>
       <c r="G37" s="20">
@@ -19285,7 +19433,7 @@
         <v>900</v>
       </c>
       <c r="F38" s="25">
-        <f t="shared" si="0"/>
+        <f>G38*1.25</f>
         <v>7360</v>
       </c>
       <c r="G38" s="20">
@@ -19312,7 +19460,7 @@
         <v>36</v>
       </c>
       <c r="F39" s="25">
-        <f t="shared" si="0"/>
+        <f>G39*1.25</f>
         <v>7905</v>
       </c>
       <c r="G39" s="20">
@@ -19339,7 +19487,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="25">
-        <f t="shared" si="0"/>
+        <f>G40*1.25</f>
         <v>7905</v>
       </c>
       <c r="G40" s="20">
@@ -19366,7 +19514,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="25">
-        <f t="shared" si="0"/>
+        <f>G41*1.25</f>
         <v>2698.75</v>
       </c>
       <c r="G41" s="20">
@@ -19393,7 +19541,7 @@
         <v>49</v>
       </c>
       <c r="F42" s="25">
-        <f t="shared" si="0"/>
+        <f>G42*1.25</f>
         <v>2698.75</v>
       </c>
       <c r="G42" s="20">
@@ -19420,7 +19568,7 @@
         <v>900</v>
       </c>
       <c r="F43" s="25">
-        <f t="shared" si="0"/>
+        <f>G43*1.25</f>
         <v>11177.5</v>
       </c>
       <c r="G43" s="20">
@@ -19447,7 +19595,7 @@
         <v>900</v>
       </c>
       <c r="F44" s="25">
-        <f t="shared" si="0"/>
+        <f>G44*1.25</f>
         <v>11177.5</v>
       </c>
       <c r="G44" s="20">
@@ -19474,7 +19622,7 @@
         <v>36</v>
       </c>
       <c r="F45" s="25">
-        <f t="shared" si="0"/>
+        <f>G45*1.25</f>
         <v>6118.75</v>
       </c>
       <c r="G45" s="20">
@@ -19501,7 +19649,7 @@
         <v>36</v>
       </c>
       <c r="F46" s="25">
-        <f t="shared" si="0"/>
+        <f>G46*1.25</f>
         <v>6118.75</v>
       </c>
       <c r="G46" s="20">
@@ -19528,7 +19676,7 @@
         <v>900</v>
       </c>
       <c r="F47" s="25">
-        <f t="shared" si="0"/>
+        <f>G47*1.25</f>
         <v>3355</v>
       </c>
       <c r="G47" s="20">
@@ -19555,7 +19703,7 @@
         <v>900</v>
       </c>
       <c r="F48" s="25">
-        <f t="shared" si="0"/>
+        <f>G48*1.25</f>
         <v>3355</v>
       </c>
       <c r="G48" s="20">
@@ -19582,7 +19730,7 @@
         <v>909</v>
       </c>
       <c r="F49" s="25">
-        <f t="shared" si="0"/>
+        <f>G49*1.25</f>
         <v>2956.25</v>
       </c>
       <c r="G49" s="20">
@@ -19609,7 +19757,7 @@
         <v>909</v>
       </c>
       <c r="F50" s="25">
-        <f t="shared" si="0"/>
+        <f>G50*1.25</f>
         <v>2956.25</v>
       </c>
       <c r="G50" s="20">
@@ -19636,7 +19784,7 @@
         <v>49</v>
       </c>
       <c r="F51" s="25">
-        <f t="shared" si="0"/>
+        <f>G51*1.25</f>
         <v>2956.25</v>
       </c>
       <c r="G51" s="20">
@@ -19663,7 +19811,7 @@
         <v>49</v>
       </c>
       <c r="F52" s="25">
-        <f t="shared" si="0"/>
+        <f>G52*1.25</f>
         <v>2956.25</v>
       </c>
       <c r="G52" s="20">
@@ -20407,7 +20555,7 @@
         <v>36</v>
       </c>
       <c r="F80" s="25">
-        <f t="shared" ref="F80:F86" si="1">G80*1.5</f>
+        <f>G80*1.5</f>
         <v>7318.5</v>
       </c>
       <c r="G80" s="20">
@@ -20434,7 +20582,7 @@
         <v>900</v>
       </c>
       <c r="F81" s="25">
-        <f t="shared" si="1"/>
+        <f>G81*1.5</f>
         <v>2395.5</v>
       </c>
       <c r="G81" s="20">
@@ -20461,7 +20609,7 @@
         <v>900</v>
       </c>
       <c r="F82" s="25">
-        <f t="shared" si="1"/>
+        <f>G82*1.5</f>
         <v>11761.5</v>
       </c>
       <c r="G82" s="20">
@@ -20488,7 +20636,7 @@
         <v>900</v>
       </c>
       <c r="F83" s="25">
-        <f t="shared" si="1"/>
+        <f>G83*1.5</f>
         <v>2395.5</v>
       </c>
       <c r="G83" s="20">
@@ -20515,7 +20663,7 @@
         <v>900</v>
       </c>
       <c r="F84" s="25">
-        <f t="shared" si="1"/>
+        <f>G84*1.5</f>
         <v>11761.5</v>
       </c>
       <c r="G84" s="20">
@@ -20542,7 +20690,7 @@
         <v>49</v>
       </c>
       <c r="F85" s="25">
-        <f t="shared" si="1"/>
+        <f>G85*1.5</f>
         <v>3553.5</v>
       </c>
       <c r="G85" s="20">
@@ -20569,7 +20717,7 @@
         <v>49</v>
       </c>
       <c r="F86" s="25">
-        <f t="shared" si="1"/>
+        <f>G86*1.5</f>
         <v>3553.5</v>
       </c>
       <c r="G86" s="20">
@@ -20702,7 +20850,7 @@
         <v>36</v>
       </c>
       <c r="F91" s="25">
-        <f t="shared" ref="F91:F122" si="2">G91*1.25</f>
+        <f>G91*1.25</f>
         <v>12163.75</v>
       </c>
       <c r="G91" s="20">
@@ -20729,7 +20877,7 @@
         <v>36</v>
       </c>
       <c r="F92" s="25">
-        <f t="shared" si="2"/>
+        <f>G92*1.25</f>
         <v>12163.75</v>
       </c>
       <c r="G92" s="20">
@@ -20756,7 +20904,7 @@
         <v>49</v>
       </c>
       <c r="F93" s="25">
-        <f t="shared" si="2"/>
+        <f>G93*1.25</f>
         <v>1248.75</v>
       </c>
       <c r="G93" s="20">
@@ -20783,7 +20931,7 @@
         <v>49</v>
       </c>
       <c r="F94" s="25">
-        <f t="shared" si="2"/>
+        <f>G94*1.25</f>
         <v>1248.75</v>
       </c>
       <c r="G94" s="20">
@@ -20810,7 +20958,7 @@
         <v>909</v>
       </c>
       <c r="F95" s="25">
-        <f t="shared" si="2"/>
+        <f>G95*1.25</f>
         <v>4483.75</v>
       </c>
       <c r="G95" s="20">
@@ -20837,7 +20985,7 @@
         <v>909</v>
       </c>
       <c r="F96" s="25">
-        <f t="shared" si="2"/>
+        <f>G96*1.25</f>
         <v>4483.75</v>
       </c>
       <c r="G96" s="20">
@@ -20864,7 +21012,7 @@
         <v>909</v>
       </c>
       <c r="F97" s="25">
-        <f t="shared" si="2"/>
+        <f>G97*1.25</f>
         <v>4483.75</v>
       </c>
       <c r="G97" s="20">
@@ -20891,7 +21039,7 @@
         <v>909</v>
       </c>
       <c r="F98" s="25">
-        <f t="shared" si="2"/>
+        <f>G98*1.25</f>
         <v>4483.75</v>
       </c>
       <c r="G98" s="20">
@@ -20918,7 +21066,7 @@
         <v>900</v>
       </c>
       <c r="F99" s="25">
-        <f t="shared" si="2"/>
+        <f>G99*1.25</f>
         <v>722.5</v>
       </c>
       <c r="G99" s="20">
@@ -20945,7 +21093,7 @@
         <v>900</v>
       </c>
       <c r="F100" s="25">
-        <f t="shared" si="2"/>
+        <f>G100*1.25</f>
         <v>722.5</v>
       </c>
       <c r="G100" s="20">
@@ -20972,7 +21120,7 @@
         <v>909</v>
       </c>
       <c r="F101" s="25">
-        <f t="shared" si="2"/>
+        <f>G101*1.25</f>
         <v>12038.75</v>
       </c>
       <c r="G101" s="20">
@@ -20999,7 +21147,7 @@
         <v>909</v>
       </c>
       <c r="F102" s="25">
-        <f t="shared" si="2"/>
+        <f>G102*1.25</f>
         <v>12038.75</v>
       </c>
       <c r="G102" s="20">
@@ -21026,7 +21174,7 @@
         <v>909</v>
       </c>
       <c r="F103" s="25">
-        <f t="shared" si="2"/>
+        <f>G103*1.25</f>
         <v>12182.5</v>
       </c>
       <c r="G103" s="20">
@@ -21053,7 +21201,7 @@
         <v>909</v>
       </c>
       <c r="F104" s="25">
-        <f t="shared" si="2"/>
+        <f>G104*1.25</f>
         <v>12182.5</v>
       </c>
       <c r="G104" s="20">
@@ -21080,7 +21228,7 @@
         <v>36</v>
       </c>
       <c r="F105" s="25">
-        <f t="shared" si="2"/>
+        <f>G105*1.25</f>
         <v>2956.25</v>
       </c>
       <c r="G105" s="20">
@@ -21107,7 +21255,7 @@
         <v>36</v>
       </c>
       <c r="F106" s="25">
-        <f t="shared" si="2"/>
+        <f>G106*1.25</f>
         <v>2956.25</v>
       </c>
       <c r="G106" s="20">
@@ -21134,7 +21282,7 @@
         <v>49</v>
       </c>
       <c r="F107" s="25">
-        <f t="shared" si="2"/>
+        <f>G107*1.25</f>
         <v>196.25</v>
       </c>
       <c r="G107" s="20">
@@ -21161,7 +21309,7 @@
         <v>49</v>
       </c>
       <c r="F108" s="25">
-        <f t="shared" si="2"/>
+        <f>G108*1.25</f>
         <v>196.25</v>
       </c>
       <c r="G108" s="20">
@@ -21188,7 +21336,7 @@
         <v>900</v>
       </c>
       <c r="F109" s="25">
-        <f t="shared" si="2"/>
+        <f>G109*1.25</f>
         <v>12182.5</v>
       </c>
       <c r="G109" s="20">
@@ -21215,7 +21363,7 @@
         <v>900</v>
       </c>
       <c r="F110" s="25">
-        <f t="shared" si="2"/>
+        <f>G110*1.25</f>
         <v>12182.5</v>
       </c>
       <c r="G110" s="20">
@@ -21242,7 +21390,7 @@
         <v>900</v>
       </c>
       <c r="F111" s="25">
-        <f t="shared" si="2"/>
+        <f>G111*1.25</f>
         <v>622.5</v>
       </c>
       <c r="G111" s="20">
@@ -21269,7 +21417,7 @@
         <v>900</v>
       </c>
       <c r="F112" s="25">
-        <f t="shared" si="2"/>
+        <f>G112*1.25</f>
         <v>622.5</v>
       </c>
       <c r="G112" s="20">
@@ -21296,7 +21444,7 @@
         <v>909</v>
       </c>
       <c r="F113" s="25">
-        <f t="shared" si="2"/>
+        <f>G113*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G113" s="20">
@@ -21323,7 +21471,7 @@
         <v>909</v>
       </c>
       <c r="F114" s="25">
-        <f t="shared" si="2"/>
+        <f>G114*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G114" s="20">
@@ -21350,7 +21498,7 @@
         <v>909</v>
       </c>
       <c r="F115" s="25">
-        <f t="shared" si="2"/>
+        <f>G115*1.25</f>
         <v>7905</v>
       </c>
       <c r="G115" s="20">
@@ -21377,7 +21525,7 @@
         <v>909</v>
       </c>
       <c r="F116" s="25">
-        <f t="shared" si="2"/>
+        <f>G116*1.25</f>
         <v>7905</v>
       </c>
       <c r="G116" s="20">
@@ -21404,7 +21552,7 @@
         <v>36</v>
       </c>
       <c r="F117" s="25">
-        <f t="shared" si="2"/>
+        <f>G117*1.25</f>
         <v>4483.75</v>
       </c>
       <c r="G117" s="20">
@@ -21431,7 +21579,7 @@
         <v>36</v>
       </c>
       <c r="F118" s="25">
-        <f t="shared" si="2"/>
+        <f>G118*1.25</f>
         <v>9865</v>
       </c>
       <c r="G118" s="20">
@@ -21458,7 +21606,7 @@
         <v>36</v>
       </c>
       <c r="F119" s="25">
-        <f t="shared" si="2"/>
+        <f>G119*1.25</f>
         <v>4483.75</v>
       </c>
       <c r="G119" s="20">
@@ -21485,7 +21633,7 @@
         <v>36</v>
       </c>
       <c r="F120" s="25">
-        <f t="shared" si="2"/>
+        <f>G120*1.25</f>
         <v>9865</v>
       </c>
       <c r="G120" s="20">
@@ -21512,7 +21660,7 @@
         <v>49</v>
       </c>
       <c r="F121" s="25">
-        <f t="shared" si="2"/>
+        <f>G121*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G121" s="20">
@@ -21539,7 +21687,7 @@
         <v>49</v>
       </c>
       <c r="F122" s="25">
-        <f t="shared" si="2"/>
+        <f>G122*1.25</f>
         <v>6098.75</v>
       </c>
       <c r="G122" s="20">
@@ -21566,7 +21714,7 @@
         <v>49</v>
       </c>
       <c r="F123" s="25">
-        <f t="shared" ref="F123:F154" si="3">G123*1.25</f>
+        <f>G123*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G123" s="20">
@@ -21593,7 +21741,7 @@
         <v>49</v>
       </c>
       <c r="F124" s="25">
-        <f t="shared" si="3"/>
+        <f>G124*1.25</f>
         <v>6098.75</v>
       </c>
       <c r="G124" s="20">
@@ -21620,7 +21768,7 @@
         <v>909</v>
       </c>
       <c r="F125" s="25">
-        <f t="shared" si="3"/>
+        <f>G125*1.25</f>
         <v>6120</v>
       </c>
       <c r="G125" s="20">
@@ -21647,7 +21795,7 @@
         <v>909</v>
       </c>
       <c r="F126" s="25">
-        <f t="shared" si="3"/>
+        <f>G126*1.25</f>
         <v>6120</v>
       </c>
       <c r="G126" s="20">
@@ -21674,7 +21822,7 @@
         <v>49</v>
       </c>
       <c r="F127" s="25">
-        <f t="shared" si="3"/>
+        <f>G127*1.25</f>
         <v>6120</v>
       </c>
       <c r="G127" s="20">
@@ -21701,7 +21849,7 @@
         <v>49</v>
       </c>
       <c r="F128" s="25">
-        <f t="shared" si="3"/>
+        <f>G128*1.25</f>
         <v>6120</v>
       </c>
       <c r="G128" s="20">
@@ -21728,7 +21876,7 @@
         <v>900</v>
       </c>
       <c r="F129" s="25">
-        <f t="shared" si="3"/>
+        <f>G129*1.25</f>
         <v>6118.75</v>
       </c>
       <c r="G129" s="20">
@@ -21755,7 +21903,7 @@
         <v>900</v>
       </c>
       <c r="F130" s="25">
-        <f t="shared" si="3"/>
+        <f>G130*1.25</f>
         <v>6118.75</v>
       </c>
       <c r="G130" s="20">
@@ -21782,7 +21930,7 @@
         <v>909</v>
       </c>
       <c r="F131" s="25">
-        <f t="shared" si="3"/>
+        <f>G131*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G131" s="20">
@@ -21809,7 +21957,7 @@
         <v>909</v>
       </c>
       <c r="F132" s="25">
-        <f t="shared" si="3"/>
+        <f>G132*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G132" s="20">
@@ -21836,7 +21984,7 @@
         <v>909</v>
       </c>
       <c r="F133" s="25">
-        <f t="shared" si="3"/>
+        <f>G133*1.25</f>
         <v>3247.5</v>
       </c>
       <c r="G133" s="20">
@@ -21863,7 +22011,7 @@
         <v>909</v>
       </c>
       <c r="F134" s="25">
-        <f t="shared" si="3"/>
+        <f>G134*1.25</f>
         <v>3247.5</v>
       </c>
       <c r="G134" s="20">
@@ -21890,7 +22038,7 @@
         <v>36</v>
       </c>
       <c r="F135" s="25">
-        <f t="shared" si="3"/>
+        <f>G135*1.25</f>
         <v>622.5</v>
       </c>
       <c r="G135" s="20">
@@ -21917,7 +22065,7 @@
         <v>36</v>
       </c>
       <c r="F136" s="25">
-        <f t="shared" si="3"/>
+        <f>G136*1.25</f>
         <v>622.5</v>
       </c>
       <c r="G136" s="20">
@@ -21944,7 +22092,7 @@
         <v>49</v>
       </c>
       <c r="F137" s="25">
-        <f t="shared" si="3"/>
+        <f>G137*1.25</f>
         <v>3247.5</v>
       </c>
       <c r="G137" s="20">
@@ -21971,7 +22119,7 @@
         <v>49</v>
       </c>
       <c r="F138" s="25">
-        <f t="shared" si="3"/>
+        <f>G138*1.25</f>
         <v>3247.5</v>
       </c>
       <c r="G138" s="20">
@@ -21998,7 +22146,7 @@
         <v>909</v>
       </c>
       <c r="F139" s="25">
-        <f t="shared" si="3"/>
+        <f>G139*1.25</f>
         <v>7028.75</v>
       </c>
       <c r="G139" s="20">
@@ -22025,7 +22173,7 @@
         <v>909</v>
       </c>
       <c r="F140" s="25">
-        <f t="shared" si="3"/>
+        <f>G140*1.25</f>
         <v>7028.75</v>
       </c>
       <c r="G140" s="20">
@@ -22052,7 +22200,7 @@
         <v>909</v>
       </c>
       <c r="F141" s="25">
-        <f t="shared" si="3"/>
+        <f>G141*1.25</f>
         <v>11026.25</v>
       </c>
       <c r="G141" s="20">
@@ -22079,7 +22227,7 @@
         <v>909</v>
       </c>
       <c r="F142" s="25">
-        <f t="shared" si="3"/>
+        <f>G142*1.25</f>
         <v>11026.25</v>
       </c>
       <c r="G142" s="20">
@@ -22106,7 +22254,7 @@
         <v>900</v>
       </c>
       <c r="F143" s="25">
-        <f t="shared" si="3"/>
+        <f>G143*1.25</f>
         <v>7028.75</v>
       </c>
       <c r="G143" s="20">
@@ -22133,7 +22281,7 @@
         <v>900</v>
       </c>
       <c r="F144" s="25">
-        <f t="shared" si="3"/>
+        <f>G144*1.25</f>
         <v>9160</v>
       </c>
       <c r="G144" s="20">
@@ -22160,7 +22308,7 @@
         <v>900</v>
       </c>
       <c r="F145" s="25">
-        <f t="shared" si="3"/>
+        <f>G145*1.25</f>
         <v>7028.75</v>
       </c>
       <c r="G145" s="20">
@@ -22187,7 +22335,7 @@
         <v>900</v>
       </c>
       <c r="F146" s="25">
-        <f t="shared" si="3"/>
+        <f>G146*1.25</f>
         <v>9160</v>
       </c>
       <c r="G146" s="20">
@@ -22214,7 +22362,7 @@
         <v>49</v>
       </c>
       <c r="F147" s="25">
-        <f t="shared" si="3"/>
+        <f>G147*1.25</f>
         <v>2570</v>
       </c>
       <c r="G147" s="20">
@@ -22241,7 +22389,7 @@
         <v>49</v>
       </c>
       <c r="F148" s="25">
-        <f t="shared" si="3"/>
+        <f>G148*1.25</f>
         <v>2570</v>
       </c>
       <c r="G148" s="20">
@@ -22268,7 +22416,7 @@
         <v>909</v>
       </c>
       <c r="F149" s="25">
-        <f t="shared" si="3"/>
+        <f>G149*1.25</f>
         <v>10308.75</v>
       </c>
       <c r="G149" s="20">
@@ -22295,7 +22443,7 @@
         <v>909</v>
       </c>
       <c r="F150" s="25">
-        <f t="shared" si="3"/>
+        <f>G150*1.25</f>
         <v>10308.75</v>
       </c>
       <c r="G150" s="20">
@@ -22322,7 +22470,7 @@
         <v>36</v>
       </c>
       <c r="F151" s="25">
-        <f t="shared" si="3"/>
+        <f>G151*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G151" s="20">
@@ -22349,7 +22497,7 @@
         <v>36</v>
       </c>
       <c r="F152" s="25">
-        <f t="shared" si="3"/>
+        <f>G152*1.25</f>
         <v>5733.75</v>
       </c>
       <c r="G152" s="20">
@@ -23220,7 +23368,7 @@
         <v>900</v>
       </c>
       <c r="F185" s="25">
-        <f t="shared" ref="F185:F196" si="4">G185*1.5</f>
+        <f>G185*1.5</f>
         <v>8832</v>
       </c>
       <c r="G185" s="20">
@@ -23247,7 +23395,7 @@
         <v>900</v>
       </c>
       <c r="F186" s="25">
-        <f t="shared" si="4"/>
+        <f>G186*1.5</f>
         <v>8832</v>
       </c>
       <c r="G186" s="20">
@@ -23274,7 +23422,7 @@
         <v>36</v>
       </c>
       <c r="F187" s="25">
-        <f t="shared" si="4"/>
+        <f>G187*1.5</f>
         <v>9486</v>
       </c>
       <c r="G187" s="20">
@@ -23301,7 +23449,7 @@
         <v>36</v>
       </c>
       <c r="F188" s="25">
-        <f t="shared" si="4"/>
+        <f>G188*1.5</f>
         <v>9486</v>
       </c>
       <c r="G188" s="20">
@@ -23328,7 +23476,7 @@
         <v>49</v>
       </c>
       <c r="F189" s="25">
-        <f t="shared" si="4"/>
+        <f>G189*1.5</f>
         <v>3238.5</v>
       </c>
       <c r="G189" s="20">
@@ -23355,7 +23503,7 @@
         <v>49</v>
       </c>
       <c r="F190" s="25">
-        <f t="shared" si="4"/>
+        <f>G190*1.5</f>
         <v>3238.5</v>
       </c>
       <c r="G190" s="20">
@@ -23382,7 +23530,7 @@
         <v>900</v>
       </c>
       <c r="F191" s="25">
-        <f t="shared" si="4"/>
+        <f>G191*1.5</f>
         <v>13413</v>
       </c>
       <c r="G191" s="20">
@@ -23409,7 +23557,7 @@
         <v>900</v>
       </c>
       <c r="F192" s="25">
-        <f t="shared" si="4"/>
+        <f>G192*1.5</f>
         <v>13413</v>
       </c>
       <c r="G192" s="20">
@@ -23436,7 +23584,7 @@
         <v>36</v>
       </c>
       <c r="F193" s="25">
-        <f t="shared" si="4"/>
+        <f>G193*1.5</f>
         <v>7342.5</v>
       </c>
       <c r="G193" s="20">
@@ -23463,7 +23611,7 @@
         <v>36</v>
       </c>
       <c r="F194" s="25">
-        <f t="shared" si="4"/>
+        <f>G194*1.5</f>
         <v>7342.5</v>
       </c>
       <c r="G194" s="20">
@@ -23490,7 +23638,7 @@
         <v>900</v>
       </c>
       <c r="F195" s="25">
-        <f t="shared" si="4"/>
+        <f>G195*1.5</f>
         <v>4026</v>
       </c>
       <c r="G195" s="20">
@@ -23517,7 +23665,7 @@
         <v>900</v>
       </c>
       <c r="F196" s="25">
-        <f t="shared" si="4"/>
+        <f>G196*1.5</f>
         <v>4026</v>
       </c>
       <c r="G196" s="20">
@@ -23860,7 +24008,7 @@
         <v>909</v>
       </c>
       <c r="F209" s="25">
-        <f t="shared" ref="F209:F214" si="5">G209*1.5</f>
+        <f>G209*1.5</f>
         <v>13428</v>
       </c>
       <c r="G209" s="20">
@@ -23887,7 +24035,7 @@
         <v>909</v>
       </c>
       <c r="F210" s="25">
-        <f t="shared" si="5"/>
+        <f>G210*1.5</f>
         <v>13428</v>
       </c>
       <c r="G210" s="20">
@@ -23914,7 +24062,7 @@
         <v>900</v>
       </c>
       <c r="F211" s="25">
-        <f t="shared" si="5"/>
+        <f>G211*1.5</f>
         <v>4887</v>
       </c>
       <c r="G211" s="20">
@@ -23941,7 +24089,7 @@
         <v>900</v>
       </c>
       <c r="F212" s="25">
-        <f t="shared" si="5"/>
+        <f>G212*1.5</f>
         <v>4887</v>
       </c>
       <c r="G212" s="20">
@@ -23968,7 +24116,7 @@
         <v>909</v>
       </c>
       <c r="F213" s="25">
-        <f t="shared" si="5"/>
+        <f>G213*1.5</f>
         <v>7480.5</v>
       </c>
       <c r="G213" s="20">
@@ -23995,7 +24143,7 @@
         <v>909</v>
       </c>
       <c r="F214" s="25">
-        <f t="shared" si="5"/>
+        <f>G214*1.5</f>
         <v>7480.5</v>
       </c>
       <c r="G214" s="20">
@@ -24367,7 +24515,7 @@
         <v>36</v>
       </c>
       <c r="F228" s="25">
-        <f t="shared" ref="F228:F234" si="6">G228*1.5</f>
+        <f>G228*1.5</f>
         <v>7318.5</v>
       </c>
       <c r="G228" s="20">
@@ -24394,7 +24542,7 @@
         <v>900</v>
       </c>
       <c r="F229" s="25">
-        <f t="shared" si="6"/>
+        <f>G229*1.5</f>
         <v>2395.5</v>
       </c>
       <c r="G229" s="20">
@@ -24421,7 +24569,7 @@
         <v>900</v>
       </c>
       <c r="F230" s="25">
-        <f t="shared" si="6"/>
+        <f>G230*1.5</f>
         <v>11761.5</v>
       </c>
       <c r="G230" s="20">
@@ -24448,7 +24596,7 @@
         <v>900</v>
       </c>
       <c r="F231" s="25">
-        <f t="shared" si="6"/>
+        <f>G231*1.5</f>
         <v>2395.5</v>
       </c>
       <c r="G231" s="20">
@@ -24475,7 +24623,7 @@
         <v>900</v>
       </c>
       <c r="F232" s="25">
-        <f t="shared" si="6"/>
+        <f>G232*1.5</f>
         <v>11761.5</v>
       </c>
       <c r="G232" s="20">
@@ -24502,7 +24650,7 @@
         <v>49</v>
       </c>
       <c r="F233" s="25">
-        <f t="shared" si="6"/>
+        <f>G233*1.5</f>
         <v>3553.5</v>
       </c>
       <c r="G233" s="20">
@@ -24529,7 +24677,7 @@
         <v>49</v>
       </c>
       <c r="F234" s="25">
-        <f t="shared" si="6"/>
+        <f>G234*1.5</f>
         <v>3553.5</v>
       </c>
       <c r="G234" s="20">
@@ -24820,7 +24968,7 @@
         <v>909</v>
       </c>
       <c r="F245" s="25">
-        <f t="shared" ref="F245:F250" si="7">G245*1.5</f>
+        <f>G245*1.5</f>
         <v>5380.5</v>
       </c>
       <c r="G245" s="20">
@@ -24847,7 +24995,7 @@
         <v>909</v>
       </c>
       <c r="F246" s="25">
-        <f t="shared" si="7"/>
+        <f>G246*1.5</f>
         <v>5380.5</v>
       </c>
       <c r="G246" s="20">
@@ -24874,7 +25022,7 @@
         <v>900</v>
       </c>
       <c r="F247" s="25">
-        <f t="shared" si="7"/>
+        <f>G247*1.5</f>
         <v>867</v>
       </c>
       <c r="G247" s="20">
@@ -24901,7 +25049,7 @@
         <v>900</v>
       </c>
       <c r="F248" s="25">
-        <f t="shared" si="7"/>
+        <f>G248*1.5</f>
         <v>867</v>
       </c>
       <c r="G248" s="20">
@@ -24928,7 +25076,7 @@
         <v>909</v>
       </c>
       <c r="F249" s="25">
-        <f t="shared" si="7"/>
+        <f>G249*1.5</f>
         <v>14446.5</v>
       </c>
       <c r="G249" s="20">
@@ -24955,7 +25103,7 @@
         <v>909</v>
       </c>
       <c r="F250" s="25">
-        <f t="shared" si="7"/>
+        <f>G250*1.5</f>
         <v>14446.5</v>
       </c>
       <c r="G250" s="20">
@@ -25086,7 +25234,7 @@
         <v>49</v>
       </c>
       <c r="F255" s="25">
-        <f t="shared" ref="F255:F260" si="8">G255*1.5</f>
+        <f>G255*1.5</f>
         <v>235.5</v>
       </c>
       <c r="G255" s="20">
@@ -25113,7 +25261,7 @@
         <v>49</v>
       </c>
       <c r="F256" s="25">
-        <f t="shared" si="8"/>
+        <f>G256*1.5</f>
         <v>235.5</v>
       </c>
       <c r="G256" s="20">
@@ -25140,7 +25288,7 @@
         <v>900</v>
       </c>
       <c r="F257" s="25">
-        <f t="shared" si="8"/>
+        <f>G257*1.5</f>
         <v>14619</v>
       </c>
       <c r="G257" s="20">
@@ -25167,7 +25315,7 @@
         <v>900</v>
       </c>
       <c r="F258" s="25">
-        <f t="shared" si="8"/>
+        <f>G258*1.5</f>
         <v>14619</v>
       </c>
       <c r="G258" s="20">
@@ -25194,7 +25342,7 @@
         <v>900</v>
       </c>
       <c r="F259" s="25">
-        <f t="shared" si="8"/>
+        <f>G259*1.5</f>
         <v>747</v>
       </c>
       <c r="G259" s="20">
@@ -25221,7 +25369,7 @@
         <v>900</v>
       </c>
       <c r="F260" s="25">
-        <f t="shared" si="8"/>
+        <f>G260*1.5</f>
         <v>747</v>
       </c>
       <c r="G260" s="20">
@@ -25618,7 +25766,7 @@
         <v>49</v>
       </c>
       <c r="F275" s="25">
-        <f t="shared" ref="F275:F280" si="9">G275*1.5</f>
+        <f>G275*1.5</f>
         <v>7344</v>
       </c>
       <c r="G275" s="20">
@@ -25645,7 +25793,7 @@
         <v>49</v>
       </c>
       <c r="F276" s="25">
-        <f t="shared" si="9"/>
+        <f>G276*1.5</f>
         <v>7344</v>
       </c>
       <c r="G276" s="20">
@@ -25672,7 +25820,7 @@
         <v>900</v>
       </c>
       <c r="F277" s="25">
-        <f t="shared" si="9"/>
+        <f>G277*1.5</f>
         <v>7342.5</v>
       </c>
       <c r="G277" s="20">
@@ -25699,7 +25847,7 @@
         <v>900</v>
       </c>
       <c r="F278" s="25">
-        <f t="shared" si="9"/>
+        <f>G278*1.5</f>
         <v>7342.5</v>
       </c>
       <c r="G278" s="20">
@@ -25726,7 +25874,7 @@
         <v>909</v>
       </c>
       <c r="F279" s="25">
-        <f t="shared" si="9"/>
+        <f>G279*1.5</f>
         <v>6880.5</v>
       </c>
       <c r="G279" s="20">
@@ -25753,7 +25901,7 @@
         <v>909</v>
       </c>
       <c r="F280" s="25">
-        <f t="shared" si="9"/>
+        <f>G280*1.5</f>
         <v>6880.5</v>
       </c>
       <c r="G280" s="20">
@@ -26125,7 +26273,7 @@
         <v>900</v>
       </c>
       <c r="F294" s="25">
-        <f t="shared" ref="F294:F300" si="10">G294*1.5</f>
+        <f>G294*1.5</f>
         <v>10992</v>
       </c>
       <c r="G294" s="20">
@@ -26152,7 +26300,7 @@
         <v>49</v>
       </c>
       <c r="F295" s="25">
-        <f t="shared" si="10"/>
+        <f>G295*1.5</f>
         <v>3084</v>
       </c>
       <c r="G295" s="20">
@@ -26179,7 +26327,7 @@
         <v>49</v>
       </c>
       <c r="F296" s="25">
-        <f t="shared" si="10"/>
+        <f>G296*1.5</f>
         <v>3084</v>
       </c>
       <c r="G296" s="20">
@@ -26206,7 +26354,7 @@
         <v>909</v>
       </c>
       <c r="F297" s="25">
-        <f t="shared" si="10"/>
+        <f>G297*1.5</f>
         <v>12370.5</v>
       </c>
       <c r="G297" s="20">
@@ -26233,7 +26381,7 @@
         <v>909</v>
       </c>
       <c r="F298" s="25">
-        <f t="shared" si="10"/>
+        <f>G298*1.5</f>
         <v>12370.5</v>
       </c>
       <c r="G298" s="20">
@@ -26260,7 +26408,7 @@
         <v>36</v>
       </c>
       <c r="F299" s="25">
-        <f t="shared" si="10"/>
+        <f>G299*1.5</f>
         <v>6880.5</v>
       </c>
       <c r="G299" s="20">
@@ -26287,7 +26435,7 @@
         <v>36</v>
       </c>
       <c r="F300" s="25">
-        <f t="shared" si="10"/>
+        <f>G300*1.5</f>
         <v>6880.5</v>
       </c>
       <c r="G300" s="20">
@@ -26314,7 +26462,7 @@
         <v>909</v>
       </c>
       <c r="F301" s="25">
-        <f t="shared" ref="F301:F348" si="11">G301*1.4</f>
+        <f>G301*1.4</f>
         <v>1909.6</v>
       </c>
       <c r="G301" s="20">
@@ -26341,7 +26489,7 @@
         <v>909</v>
       </c>
       <c r="F302" s="25">
-        <f t="shared" si="11"/>
+        <f>G302*1.4</f>
         <v>1909.6</v>
       </c>
       <c r="G302" s="20">
@@ -26368,7 +26516,7 @@
         <v>909</v>
       </c>
       <c r="F303" s="25">
-        <f t="shared" si="11"/>
+        <f>G303*1.4</f>
         <v>1909.6</v>
       </c>
       <c r="G303" s="20">
@@ -26395,7 +26543,7 @@
         <v>909</v>
       </c>
       <c r="F304" s="25">
-        <f t="shared" si="11"/>
+        <f>G304*1.4</f>
         <v>1909.6</v>
       </c>
       <c r="G304" s="20">
@@ -26422,7 +26570,7 @@
         <v>909</v>
       </c>
       <c r="F305" s="25">
-        <f t="shared" si="11"/>
+        <f>G305*1.4</f>
         <v>11048.8</v>
       </c>
       <c r="G305" s="20">
@@ -26449,7 +26597,7 @@
         <v>909</v>
       </c>
       <c r="F306" s="25">
-        <f t="shared" si="11"/>
+        <f>G306*1.4</f>
         <v>6561.7999999999993</v>
       </c>
       <c r="G306" s="20">
@@ -26476,7 +26624,7 @@
         <v>909</v>
       </c>
       <c r="F307" s="25">
-        <f t="shared" si="11"/>
+        <f>G307*1.4</f>
         <v>11048.8</v>
       </c>
       <c r="G307" s="20">
@@ -26503,7 +26651,7 @@
         <v>909</v>
       </c>
       <c r="F308" s="25">
-        <f t="shared" si="11"/>
+        <f>G308*1.4</f>
         <v>6561.7999999999993</v>
       </c>
       <c r="G308" s="20">
@@ -26530,7 +26678,7 @@
         <v>909</v>
       </c>
       <c r="F309" s="25">
-        <f t="shared" si="11"/>
+        <f>G309*1.4</f>
         <v>6561.7999999999993</v>
       </c>
       <c r="G309" s="20">
@@ -26557,7 +26705,7 @@
         <v>909</v>
       </c>
       <c r="F310" s="25">
-        <f t="shared" si="11"/>
+        <f>G310*1.4</f>
         <v>6561.7999999999993</v>
       </c>
       <c r="G310" s="20">
@@ -26584,7 +26732,7 @@
         <v>36</v>
       </c>
       <c r="F311" s="25">
-        <f t="shared" si="11"/>
+        <f>G311*1.4</f>
         <v>12532.8</v>
       </c>
       <c r="G311" s="20">
@@ -26611,7 +26759,7 @@
         <v>36</v>
       </c>
       <c r="F312" s="25">
-        <f t="shared" si="11"/>
+        <f>G312*1.4</f>
         <v>12532.8</v>
       </c>
       <c r="G312" s="20">
@@ -26638,7 +26786,7 @@
         <v>49</v>
       </c>
       <c r="F313" s="25">
-        <f t="shared" si="11"/>
+        <f>G313*1.4</f>
         <v>11048.8</v>
       </c>
       <c r="G313" s="20">
@@ -26665,7 +26813,7 @@
         <v>49</v>
       </c>
       <c r="F314" s="25">
-        <f t="shared" si="11"/>
+        <f>G314*1.4</f>
         <v>11180.4</v>
       </c>
       <c r="G314" s="20">
@@ -26692,7 +26840,7 @@
         <v>49</v>
       </c>
       <c r="F315" s="25">
-        <f t="shared" si="11"/>
+        <f>G315*1.4</f>
         <v>11048.8</v>
       </c>
       <c r="G315" s="20">
@@ -26719,7 +26867,7 @@
         <v>49</v>
       </c>
       <c r="F316" s="25">
-        <f t="shared" si="11"/>
+        <f>G316*1.4</f>
         <v>11180.4</v>
       </c>
       <c r="G316" s="20">
@@ -26746,7 +26894,7 @@
         <v>909</v>
       </c>
       <c r="F317" s="25">
-        <f t="shared" si="11"/>
+        <f>G317*1.4</f>
         <v>2209.1999999999998</v>
       </c>
       <c r="G317" s="20">
@@ -26773,7 +26921,7 @@
         <v>909</v>
       </c>
       <c r="F318" s="25">
-        <f t="shared" si="11"/>
+        <f>G318*1.4</f>
         <v>2209.1999999999998</v>
       </c>
       <c r="G318" s="20">
@@ -26800,7 +26948,7 @@
         <v>36</v>
       </c>
       <c r="F319" s="25">
-        <f t="shared" si="11"/>
+        <f>G319*1.4</f>
         <v>2209.1999999999998</v>
       </c>
       <c r="G319" s="20">
@@ -26827,7 +26975,7 @@
         <v>36</v>
       </c>
       <c r="F320" s="25">
-        <f t="shared" si="11"/>
+        <f>G320*1.4</f>
         <v>2209.1999999999998</v>
       </c>
       <c r="G320" s="20">
@@ -26854,7 +27002,7 @@
         <v>900</v>
       </c>
       <c r="F321" s="25">
-        <f t="shared" si="11"/>
+        <f>G321*1.4</f>
         <v>2209.1999999999998</v>
       </c>
       <c r="G321" s="20">
@@ -26881,7 +27029,7 @@
         <v>900</v>
       </c>
       <c r="F322" s="25">
-        <f t="shared" si="11"/>
+        <f>G322*1.4</f>
         <v>2209.1999999999998</v>
       </c>
       <c r="G322" s="20">
@@ -26908,7 +27056,7 @@
         <v>36</v>
       </c>
       <c r="F323" s="25">
-        <f t="shared" si="11"/>
+        <f>G323*1.4</f>
         <v>8206.7999999999993</v>
       </c>
       <c r="G323" s="20">
@@ -26935,7 +27083,7 @@
         <v>36</v>
       </c>
       <c r="F324" s="25">
-        <f t="shared" si="11"/>
+        <f>G324*1.4</f>
         <v>10381</v>
       </c>
       <c r="G324" s="20">
@@ -26962,7 +27110,7 @@
         <v>36</v>
       </c>
       <c r="F325" s="25">
-        <f t="shared" si="11"/>
+        <f>G325*1.4</f>
         <v>13644.4</v>
       </c>
       <c r="G325" s="20">
@@ -26989,7 +27137,7 @@
         <v>36</v>
       </c>
       <c r="F326" s="25">
-        <f t="shared" si="11"/>
+        <f>G326*1.4</f>
         <v>8206.7999999999993</v>
       </c>
       <c r="G326" s="20">
@@ -27016,7 +27164,7 @@
         <v>36</v>
       </c>
       <c r="F327" s="25">
-        <f t="shared" si="11"/>
+        <f>G327*1.4</f>
         <v>10381</v>
       </c>
       <c r="G327" s="20">
@@ -27043,7 +27191,7 @@
         <v>36</v>
       </c>
       <c r="F328" s="25">
-        <f t="shared" si="11"/>
+        <f>G328*1.4</f>
         <v>13644.4</v>
       </c>
       <c r="G328" s="20">
@@ -27070,7 +27218,7 @@
         <v>900</v>
       </c>
       <c r="F329" s="25">
-        <f t="shared" si="11"/>
+        <f>G329*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G329" s="20">
@@ -27097,7 +27245,7 @@
         <v>900</v>
       </c>
       <c r="F330" s="25">
-        <f t="shared" si="11"/>
+        <f>G330*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G330" s="20">
@@ -27124,7 +27272,7 @@
         <v>909</v>
       </c>
       <c r="F331" s="25">
-        <f t="shared" si="11"/>
+        <f>G331*1.4</f>
         <v>8243.1999999999989</v>
       </c>
       <c r="G331" s="20">
@@ -27151,7 +27299,7 @@
         <v>909</v>
       </c>
       <c r="F332" s="25">
-        <f t="shared" si="11"/>
+        <f>G332*1.4</f>
         <v>8243.1999999999989</v>
       </c>
       <c r="G332" s="20">
@@ -27178,7 +27326,7 @@
         <v>900</v>
       </c>
       <c r="F333" s="25">
-        <f t="shared" si="11"/>
+        <f>G333*1.4</f>
         <v>8243.1999999999989</v>
       </c>
       <c r="G333" s="20">
@@ -27205,7 +27353,7 @@
         <v>900</v>
       </c>
       <c r="F334" s="25">
-        <f t="shared" si="11"/>
+        <f>G334*1.4</f>
         <v>8243.1999999999989</v>
       </c>
       <c r="G334" s="20">
@@ -27232,7 +27380,7 @@
         <v>36</v>
       </c>
       <c r="F335" s="25">
-        <f t="shared" si="11"/>
+        <f>G335*1.4</f>
         <v>8853.5999999999985</v>
       </c>
       <c r="G335" s="20">
@@ -27259,7 +27407,7 @@
         <v>36</v>
       </c>
       <c r="F336" s="25">
-        <f t="shared" si="11"/>
+        <f>G336*1.4</f>
         <v>8853.5999999999985</v>
       </c>
       <c r="G336" s="20">
@@ -27286,7 +27434,7 @@
         <v>49</v>
       </c>
       <c r="F337" s="25">
-        <f t="shared" si="11"/>
+        <f>G337*1.4</f>
         <v>3022.6</v>
       </c>
       <c r="G337" s="20">
@@ -27313,7 +27461,7 @@
         <v>49</v>
       </c>
       <c r="F338" s="25">
-        <f t="shared" si="11"/>
+        <f>G338*1.4</f>
         <v>3022.6</v>
       </c>
       <c r="G338" s="20">
@@ -27340,7 +27488,7 @@
         <v>900</v>
       </c>
       <c r="F339" s="25">
-        <f t="shared" si="11"/>
+        <f>G339*1.4</f>
         <v>12518.8</v>
       </c>
       <c r="G339" s="20">
@@ -27367,7 +27515,7 @@
         <v>900</v>
       </c>
       <c r="F340" s="25">
-        <f t="shared" si="11"/>
+        <f>G340*1.4</f>
         <v>12518.8</v>
       </c>
       <c r="G340" s="20">
@@ -27394,7 +27542,7 @@
         <v>36</v>
       </c>
       <c r="F341" s="25">
-        <f t="shared" si="11"/>
+        <f>G341*1.4</f>
         <v>6853</v>
       </c>
       <c r="G341" s="20">
@@ -27421,7 +27569,7 @@
         <v>36</v>
       </c>
       <c r="F342" s="25">
-        <f t="shared" si="11"/>
+        <f>G342*1.4</f>
         <v>6853</v>
       </c>
       <c r="G342" s="20">
@@ -27448,7 +27596,7 @@
         <v>900</v>
       </c>
       <c r="F343" s="25">
-        <f t="shared" si="11"/>
+        <f>G343*1.4</f>
         <v>3757.6</v>
       </c>
       <c r="G343" s="20">
@@ -27475,7 +27623,7 @@
         <v>900</v>
       </c>
       <c r="F344" s="25">
-        <f t="shared" si="11"/>
+        <f>G344*1.4</f>
         <v>3757.6</v>
       </c>
       <c r="G344" s="20">
@@ -27502,7 +27650,7 @@
         <v>909</v>
       </c>
       <c r="F345" s="25">
-        <f t="shared" si="11"/>
+        <f>G345*1.4</f>
         <v>3311</v>
       </c>
       <c r="G345" s="20">
@@ -27529,7 +27677,7 @@
         <v>909</v>
       </c>
       <c r="F346" s="25">
-        <f t="shared" si="11"/>
+        <f>G346*1.4</f>
         <v>3311</v>
       </c>
       <c r="G346" s="20">
@@ -27556,7 +27704,7 @@
         <v>49</v>
       </c>
       <c r="F347" s="25">
-        <f t="shared" si="11"/>
+        <f>G347*1.4</f>
         <v>3311</v>
       </c>
       <c r="G347" s="20">
@@ -27583,7 +27731,7 @@
         <v>49</v>
       </c>
       <c r="F348" s="25">
-        <f t="shared" si="11"/>
+        <f>G348*1.4</f>
         <v>3311</v>
       </c>
       <c r="G348" s="20">
@@ -27820,7 +27968,7 @@
         <v>909</v>
       </c>
       <c r="F357" s="25">
-        <f t="shared" ref="F357:F362" si="12">G357*1.5</f>
+        <f>G357*1.5</f>
         <v>13428</v>
       </c>
       <c r="G357" s="20">
@@ -27847,7 +27995,7 @@
         <v>909</v>
       </c>
       <c r="F358" s="25">
-        <f t="shared" si="12"/>
+        <f>G358*1.5</f>
         <v>13428</v>
       </c>
       <c r="G358" s="20">
@@ -27874,7 +28022,7 @@
         <v>900</v>
       </c>
       <c r="F359" s="25">
-        <f t="shared" si="12"/>
+        <f>G359*1.5</f>
         <v>4887</v>
       </c>
       <c r="G359" s="20">
@@ -27901,7 +28049,7 @@
         <v>900</v>
       </c>
       <c r="F360" s="25">
-        <f t="shared" si="12"/>
+        <f>G360*1.5</f>
         <v>4887</v>
       </c>
       <c r="G360" s="20">
@@ -27928,7 +28076,7 @@
         <v>909</v>
       </c>
       <c r="F361" s="25">
-        <f t="shared" si="12"/>
+        <f>G361*1.5</f>
         <v>7480.5</v>
       </c>
       <c r="G361" s="20">
@@ -27955,7 +28103,7 @@
         <v>909</v>
       </c>
       <c r="F362" s="25">
-        <f t="shared" si="12"/>
+        <f>G362*1.5</f>
         <v>7480.5</v>
       </c>
       <c r="G362" s="20">
@@ -28327,7 +28475,7 @@
         <v>36</v>
       </c>
       <c r="F376" s="25">
-        <f t="shared" ref="F376:F382" si="13">G376*1.5</f>
+        <f>G376*1.5</f>
         <v>7318.5</v>
       </c>
       <c r="G376" s="20">
@@ -28354,7 +28502,7 @@
         <v>900</v>
       </c>
       <c r="F377" s="25">
-        <f t="shared" si="13"/>
+        <f>G377*1.5</f>
         <v>2395.5</v>
       </c>
       <c r="G377" s="20">
@@ -28381,7 +28529,7 @@
         <v>900</v>
       </c>
       <c r="F378" s="25">
-        <f t="shared" si="13"/>
+        <f>G378*1.5</f>
         <v>11761.5</v>
       </c>
       <c r="G378" s="20">
@@ -28408,7 +28556,7 @@
         <v>900</v>
       </c>
       <c r="F379" s="25">
-        <f t="shared" si="13"/>
+        <f>G379*1.5</f>
         <v>2395.5</v>
       </c>
       <c r="G379" s="20">
@@ -28435,7 +28583,7 @@
         <v>900</v>
       </c>
       <c r="F380" s="25">
-        <f t="shared" si="13"/>
+        <f>G380*1.5</f>
         <v>11761.5</v>
       </c>
       <c r="G380" s="20">
@@ -28462,7 +28610,7 @@
         <v>49</v>
       </c>
       <c r="F381" s="25">
-        <f t="shared" si="13"/>
+        <f>G381*1.5</f>
         <v>3553.5</v>
       </c>
       <c r="G381" s="20">
@@ -28489,7 +28637,7 @@
         <v>49</v>
       </c>
       <c r="F382" s="25">
-        <f t="shared" si="13"/>
+        <f>G382*1.5</f>
         <v>3553.5</v>
       </c>
       <c r="G382" s="20">
@@ -29154,7 +29302,7 @@
         <v>900</v>
       </c>
       <c r="F407" s="25">
-        <f t="shared" ref="F407:F448" si="14">G407*1.4</f>
+        <f>G407*1.4</f>
         <v>697.19999999999993</v>
       </c>
       <c r="G407" s="20">
@@ -29181,7 +29329,7 @@
         <v>900</v>
       </c>
       <c r="F408" s="25">
-        <f t="shared" si="14"/>
+        <f>G408*1.4</f>
         <v>697.19999999999993</v>
       </c>
       <c r="G408" s="20">
@@ -29208,7 +29356,7 @@
         <v>909</v>
       </c>
       <c r="F409" s="25">
-        <f t="shared" si="14"/>
+        <f>G409*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G409" s="20">
@@ -29235,7 +29383,7 @@
         <v>909</v>
       </c>
       <c r="F410" s="25">
-        <f t="shared" si="14"/>
+        <f>G410*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G410" s="20">
@@ -29262,7 +29410,7 @@
         <v>909</v>
       </c>
       <c r="F411" s="25">
-        <f t="shared" si="14"/>
+        <f>G411*1.4</f>
         <v>8853.5999999999985</v>
       </c>
       <c r="G411" s="20">
@@ -29289,7 +29437,7 @@
         <v>909</v>
       </c>
       <c r="F412" s="25">
-        <f t="shared" si="14"/>
+        <f>G412*1.4</f>
         <v>8853.5999999999985</v>
       </c>
       <c r="G412" s="20">
@@ -29316,7 +29464,7 @@
         <v>36</v>
       </c>
       <c r="F413" s="25">
-        <f t="shared" si="14"/>
+        <f>G413*1.4</f>
         <v>5021.7999999999993</v>
       </c>
       <c r="G413" s="20">
@@ -29343,7 +29491,7 @@
         <v>36</v>
       </c>
       <c r="F414" s="25">
-        <f t="shared" si="14"/>
+        <f>G414*1.4</f>
         <v>11048.8</v>
       </c>
       <c r="G414" s="20">
@@ -29370,7 +29518,7 @@
         <v>36</v>
       </c>
       <c r="F415" s="25">
-        <f t="shared" si="14"/>
+        <f>G415*1.4</f>
         <v>5021.7999999999993</v>
       </c>
       <c r="G415" s="20">
@@ -29397,7 +29545,7 @@
         <v>36</v>
       </c>
       <c r="F416" s="25">
-        <f t="shared" si="14"/>
+        <f>G416*1.4</f>
         <v>11048.8</v>
       </c>
       <c r="G416" s="20">
@@ -29424,7 +29572,7 @@
         <v>49</v>
       </c>
       <c r="F417" s="25">
-        <f t="shared" si="14"/>
+        <f>G417*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G417" s="20">
@@ -29451,7 +29599,7 @@
         <v>49</v>
       </c>
       <c r="F418" s="25">
-        <f t="shared" si="14"/>
+        <f>G418*1.4</f>
         <v>6830.5999999999995</v>
       </c>
       <c r="G418" s="20">
@@ -29478,7 +29626,7 @@
         <v>49</v>
       </c>
       <c r="F419" s="25">
-        <f t="shared" si="14"/>
+        <f>G419*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G419" s="20">
@@ -29505,7 +29653,7 @@
         <v>49</v>
       </c>
       <c r="F420" s="25">
-        <f t="shared" si="14"/>
+        <f>G420*1.4</f>
         <v>6830.5999999999995</v>
       </c>
       <c r="G420" s="20">
@@ -29532,7 +29680,7 @@
         <v>909</v>
       </c>
       <c r="F421" s="25">
-        <f t="shared" si="14"/>
+        <f>G421*1.4</f>
         <v>6854.4</v>
       </c>
       <c r="G421" s="20">
@@ -29559,7 +29707,7 @@
         <v>909</v>
       </c>
       <c r="F422" s="25">
-        <f t="shared" si="14"/>
+        <f>G422*1.4</f>
         <v>6854.4</v>
       </c>
       <c r="G422" s="20">
@@ -29586,7 +29734,7 @@
         <v>49</v>
       </c>
       <c r="F423" s="25">
-        <f t="shared" si="14"/>
+        <f>G423*1.4</f>
         <v>6854.4</v>
       </c>
       <c r="G423" s="20">
@@ -29613,7 +29761,7 @@
         <v>49</v>
       </c>
       <c r="F424" s="25">
-        <f t="shared" si="14"/>
+        <f>G424*1.4</f>
         <v>6854.4</v>
       </c>
       <c r="G424" s="20">
@@ -29640,7 +29788,7 @@
         <v>900</v>
       </c>
       <c r="F425" s="25">
-        <f t="shared" si="14"/>
+        <f>G425*1.4</f>
         <v>6853</v>
       </c>
       <c r="G425" s="20">
@@ -29667,7 +29815,7 @@
         <v>900</v>
       </c>
       <c r="F426" s="25">
-        <f t="shared" si="14"/>
+        <f>G426*1.4</f>
         <v>6853</v>
       </c>
       <c r="G426" s="20">
@@ -29694,7 +29842,7 @@
         <v>909</v>
       </c>
       <c r="F427" s="25">
-        <f t="shared" si="14"/>
+        <f>G427*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G427" s="20">
@@ -29721,7 +29869,7 @@
         <v>909</v>
       </c>
       <c r="F428" s="25">
-        <f t="shared" si="14"/>
+        <f>G428*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G428" s="20">
@@ -29748,7 +29896,7 @@
         <v>909</v>
       </c>
       <c r="F429" s="25">
-        <f t="shared" si="14"/>
+        <f>G429*1.4</f>
         <v>3637.2</v>
       </c>
       <c r="G429" s="20">
@@ -29775,7 +29923,7 @@
         <v>909</v>
       </c>
       <c r="F430" s="25">
-        <f t="shared" si="14"/>
+        <f>G430*1.4</f>
         <v>3637.2</v>
       </c>
       <c r="G430" s="20">
@@ -29802,7 +29950,7 @@
         <v>36</v>
       </c>
       <c r="F431" s="25">
-        <f t="shared" si="14"/>
+        <f>G431*1.4</f>
         <v>697.19999999999993</v>
       </c>
       <c r="G431" s="20">
@@ -29829,7 +29977,7 @@
         <v>36</v>
       </c>
       <c r="F432" s="25">
-        <f t="shared" si="14"/>
+        <f>G432*1.4</f>
         <v>697.19999999999993</v>
       </c>
       <c r="G432" s="20">
@@ -29856,7 +30004,7 @@
         <v>49</v>
       </c>
       <c r="F433" s="25">
-        <f t="shared" si="14"/>
+        <f>G433*1.4</f>
         <v>3637.2</v>
       </c>
       <c r="G433" s="20">
@@ -29883,7 +30031,7 @@
         <v>49</v>
       </c>
       <c r="F434" s="25">
-        <f t="shared" si="14"/>
+        <f>G434*1.4</f>
         <v>3637.2</v>
       </c>
       <c r="G434" s="20">
@@ -29910,7 +30058,7 @@
         <v>909</v>
       </c>
       <c r="F435" s="25">
-        <f t="shared" si="14"/>
+        <f>G435*1.4</f>
         <v>7872.2</v>
       </c>
       <c r="G435" s="20">
@@ -29937,7 +30085,7 @@
         <v>909</v>
       </c>
       <c r="F436" s="25">
-        <f t="shared" si="14"/>
+        <f>G436*1.4</f>
         <v>7872.2</v>
       </c>
       <c r="G436" s="20">
@@ -29964,7 +30112,7 @@
         <v>909</v>
       </c>
       <c r="F437" s="25">
-        <f t="shared" si="14"/>
+        <f>G437*1.4</f>
         <v>12349.4</v>
       </c>
       <c r="G437" s="20">
@@ -29991,7 +30139,7 @@
         <v>909</v>
       </c>
       <c r="F438" s="25">
-        <f t="shared" si="14"/>
+        <f>G438*1.4</f>
         <v>12349.4</v>
       </c>
       <c r="G438" s="20">
@@ -30018,7 +30166,7 @@
         <v>900</v>
       </c>
       <c r="F439" s="25">
-        <f t="shared" si="14"/>
+        <f>G439*1.4</f>
         <v>7872.2</v>
       </c>
       <c r="G439" s="20">
@@ -30045,7 +30193,7 @@
         <v>900</v>
       </c>
       <c r="F440" s="25">
-        <f t="shared" si="14"/>
+        <f>G440*1.4</f>
         <v>10259.199999999999</v>
       </c>
       <c r="G440" s="20">
@@ -30072,7 +30220,7 @@
         <v>900</v>
       </c>
       <c r="F441" s="25">
-        <f t="shared" si="14"/>
+        <f>G441*1.4</f>
         <v>7872.2</v>
       </c>
       <c r="G441" s="20">
@@ -30099,7 +30247,7 @@
         <v>900</v>
       </c>
       <c r="F442" s="25">
-        <f t="shared" si="14"/>
+        <f>G442*1.4</f>
         <v>10259.199999999999</v>
       </c>
       <c r="G442" s="20">
@@ -30126,7 +30274,7 @@
         <v>49</v>
       </c>
       <c r="F443" s="25">
-        <f t="shared" si="14"/>
+        <f>G443*1.4</f>
         <v>2878.3999999999996</v>
       </c>
       <c r="G443" s="20">
@@ -30153,7 +30301,7 @@
         <v>49</v>
       </c>
       <c r="F444" s="25">
-        <f t="shared" si="14"/>
+        <f>G444*1.4</f>
         <v>2878.3999999999996</v>
       </c>
       <c r="G444" s="20">
@@ -30180,7 +30328,7 @@
         <v>909</v>
       </c>
       <c r="F445" s="25">
-        <f t="shared" si="14"/>
+        <f>G445*1.4</f>
         <v>11545.8</v>
       </c>
       <c r="G445" s="20">
@@ -30207,7 +30355,7 @@
         <v>909</v>
       </c>
       <c r="F446" s="25">
-        <f t="shared" si="14"/>
+        <f>G446*1.4</f>
         <v>11545.8</v>
       </c>
       <c r="G446" s="20">
@@ -30234,7 +30382,7 @@
         <v>36</v>
       </c>
       <c r="F447" s="25">
-        <f t="shared" si="14"/>
+        <f>G447*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G447" s="20">
@@ -30261,7 +30409,7 @@
         <v>36</v>
       </c>
       <c r="F448" s="25">
-        <f t="shared" si="14"/>
+        <f>G448*1.4</f>
         <v>6421.7999999999993</v>
       </c>
       <c r="G448" s="20">
@@ -30290,4 +30438,685 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512FE22A-A93A-40F3-9FC6-B7BE3C5AEE5C}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="36" t="str">
+        <f>LEFT(A2,FIND(" ",A2&amp;" ")-1)</f>
+        <v>Maria</v>
+      </c>
+      <c r="C2" s="36" t="str">
+        <f>RIGHT(A2,LEN(A2)-FIND(" ",A2&amp;" "))</f>
+        <v>anders</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="str">
+        <f>LEFT(A2,SEARCH(" ",A2,1)-1)</f>
+        <v>Maria</v>
+      </c>
+      <c r="F2" s="36" t="str">
+        <f>RIGHT(A2,LEN(A2)-SEARCH(" ",A2,1))</f>
+        <v>anders</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="36" t="str">
+        <f t="shared" ref="B3:B21" si="0">LEFT(A3,FIND(" ",A3&amp;" ")-1)</f>
+        <v>Ana</v>
+      </c>
+      <c r="C3" s="36" t="str">
+        <f t="shared" ref="C3:C21" si="1">RIGHT(A3,LEN(A3)-FIND(" ",A3&amp;" "))</f>
+        <v>Trujillo</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36" t="str">
+        <f t="shared" ref="E3:E21" si="2">LEFT(A3,SEARCH(" ",A3,1)-1)</f>
+        <v>Ana</v>
+      </c>
+      <c r="F3" s="36" t="str">
+        <f t="shared" ref="F3:F21" si="3">RIGHT(A3,LEN(A3)-SEARCH(" ",A3,1))</f>
+        <v>Trujillo</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Antonio</v>
+      </c>
+      <c r="C4" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Moreno</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Antonio</v>
+      </c>
+      <c r="F4" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Moreno</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>thomas</v>
+      </c>
+      <c r="C5" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>hardy</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>thomas</v>
+      </c>
+      <c r="F5" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>hardy</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Christina</v>
+      </c>
+      <c r="C6" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Berglund</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Christina</v>
+      </c>
+      <c r="F6" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Berglund</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>hanna</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>moss</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>hanna</v>
+      </c>
+      <c r="F7" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>moss</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Frédérique</v>
+      </c>
+      <c r="C8" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Citeaux</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Frédérique</v>
+      </c>
+      <c r="F8" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Citeaux</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>1369</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Martín</v>
+      </c>
+      <c r="C9" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Sommer</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Martín</v>
+      </c>
+      <c r="F9" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Sommer</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Laurence</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Lebihan</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Laurence</v>
+      </c>
+      <c r="F10" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Lebihan</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Elizabeth</v>
+      </c>
+      <c r="C11" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Lincoln</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Elizabeth</v>
+      </c>
+      <c r="F11" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Lincoln</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>1372</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Victoria</v>
+      </c>
+      <c r="C12" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Ashworth</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Victoria</v>
+      </c>
+      <c r="F12" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Ashworth</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>1373</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Patricio</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Simpson</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Patricio</v>
+      </c>
+      <c r="F13" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Simpson</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Francisco</v>
+      </c>
+      <c r="C14" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Chang</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Francisco</v>
+      </c>
+      <c r="F14" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Chang</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>1375</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>yang</v>
+      </c>
+      <c r="C15" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>wang</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>yang</v>
+      </c>
+      <c r="F15" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>wang</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedro</v>
+      </c>
+      <c r="C16" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Afonso</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Pedro</v>
+      </c>
+      <c r="F16" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Afonso</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>1377</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Elizabeth</v>
+      </c>
+      <c r="C17" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Elizabeth</v>
+      </c>
+      <c r="F17" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Brown</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Sven</v>
+      </c>
+      <c r="C18" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Ottlieb</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Sven</v>
+      </c>
+      <c r="F18" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Ottlieb</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>1379</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Janine</v>
+      </c>
+      <c r="C19" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Labrune</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Janine</v>
+      </c>
+      <c r="F19" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Labrune</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Ann</v>
+      </c>
+      <c r="C20" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>devon</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Ann</v>
+      </c>
+      <c r="F20" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>devon</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>1381</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Roland</v>
+      </c>
+      <c r="C21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Mendel</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Roland</v>
+      </c>
+      <c r="F21" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>Mendel</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>1382</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="L22" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>1383</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="L23" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="L24" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="L25" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="L26" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="L27" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/CITECH-Datasets-Excel (4).xlsx
+++ b/CITECH-Datasets-Excel (4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Documents\College\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E863F6-4DD9-413F-B563-5C57F16EEBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739F48AA-FB40-406D-8143-A2D7E25A5935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" activeTab="6" xr2:uid="{605EDA67-C576-4EAB-B440-1A398C9991FD}"/>
   </bookViews>
@@ -20,14 +20,13 @@
     <sheet name="Sales Data" sheetId="5" r:id="rId5"/>
     <sheet name="TIME" sheetId="10" r:id="rId6"/>
     <sheet name="WHAT IF" sheetId="11" r:id="rId7"/>
-    <sheet name="Chart1" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId10"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pre Course'!$J$7:$J$44</definedName>
@@ -4794,7 +4793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -4802,9 +4801,10 @@
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="[$-14009]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="174" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;₹&quot;\ #,##0.0,\ &quot;K&quot;"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -5075,7 +5075,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5146,6 +5146,15 @@
     <xf numFmtId="2" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5167,15 +5176,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5450,222 +5454,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="846608816"/>
-        <c:axId val="846605904"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="846608816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="846605904"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="846605904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="846608816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -8658,7 +8446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11745,48 +11533,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11797,7 +11545,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -11810,11 +11558,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11827,7 +11575,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11843,7 +11591,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -11887,32 +11635,72 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -11924,33 +11712,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11972,15 +11756,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11995,15 +11777,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -12014,10 +11796,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -12033,14 +11815,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12052,12 +11834,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -12066,17 +11853,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -12085,17 +11871,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -12104,14 +11889,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12123,17 +11908,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -12154,7 +11938,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -12162,7 +11946,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12182,10 +11966,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -12202,11 +11986,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12215,14 +11999,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12252,8 +12035,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -12276,14 +12059,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -12820,549 +12597,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E8BDD74C-00CB-497B-9A31-146BFADB94E9}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13648,39 +12882,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="5974522" cy="3798957"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCEDD5E-DE21-48D0-9670-F8349D8B8F25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -13722,7 +12923,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15834,15 +15035,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="9" spans="2:8" ht="18">
       <c r="B9" s="1" t="s">
@@ -16049,10 +15250,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="42"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="2:30">
       <c r="C3" s="3" t="s">
@@ -16347,10 +15548,10 @@
       <c r="J10" s="5">
         <v>87000</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="51"/>
       <c r="S10" s="6">
         <v>150989</v>
       </c>
@@ -16804,13 +16005,13 @@
       <c r="J20" s="5">
         <v>34000</v>
       </c>
-      <c r="M20" s="43" t="s">
+      <c r="M20" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
     </row>
     <row r="21" spans="2:28">
       <c r="B21" s="6">
@@ -27259,28 +26460,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>891</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="55" t="s">
         <v>892</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="B3" s="21"/>
@@ -27342,7 +26543,7 @@
       <c r="H5" s="26" t="s">
         <v>977</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="40">
         <v>36535</v>
       </c>
     </row>
@@ -27372,7 +26573,7 @@
       <c r="H6" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="40">
         <v>45301</v>
       </c>
     </row>
@@ -27429,7 +26630,7 @@
       <c r="H8" s="26" t="s">
         <v>999</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="40">
         <v>36536</v>
       </c>
     </row>
@@ -27459,7 +26660,7 @@
       <c r="H9" s="26" t="s">
         <v>974</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="40">
         <v>36568</v>
       </c>
     </row>
@@ -39249,10 +38450,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0CC911-B499-49F7-A8AB-9E24A7AFCA1E}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -39263,8 +38464,7 @@
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -39288,237 +38488,241 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="50">
+      <c r="A2" s="43">
         <v>36535</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="43">
         <v>45301</v>
       </c>
       <c r="C2" s="38">
-        <f>DATEDIF(A2,B2,"Y")</f>
+        <f t="shared" ref="C2:C10" si="0">DATEDIF(A2,B2,"Y")</f>
         <v>24</v>
       </c>
       <c r="D2" s="38">
-        <f>DATEDIF(A2,B2,"Ym")</f>
+        <f t="shared" ref="D2:D10" si="1">DATEDIF(A2,B2,"Ym")</f>
         <v>0</v>
       </c>
       <c r="E2" s="38">
-        <f>DATEDIF(A2,B2,"MD")</f>
+        <f t="shared" ref="E2:E10" si="2">DATEDIF(A2,B2,"MD")</f>
         <v>0</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(C2," YEARS ",D2," MONTHS ",E2," DAYS ")</f>
         <v xml:space="preserve">24 YEARS 0 MONTHS 0 DAYS </v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="41">
         <f>DATEVALUE("10-01-2002")</f>
         <v>37266</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="45">
         <f>TIMEVALUE("07:15")</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="41">
         <f ca="1">TODAY()</f>
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="44">
+        <v>36536</v>
+      </c>
+      <c r="B3" s="44">
+        <v>36568</v>
+      </c>
+      <c r="C3" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F10" si="3">CONCATENATE(C3," YEARS ",D3," MONTHS ",E3," DAYS ")</f>
+        <v xml:space="preserve">0 YEARS 1 MONTHS 1 DAYS </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="42">
+        <v>37601</v>
+      </c>
+      <c r="B4" s="42">
         <v>45307</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="51">
-        <v>36536</v>
-      </c>
-      <c r="B3" s="51">
-        <v>36568</v>
-      </c>
-      <c r="C3" s="38">
-        <f>DATEDIF(A3,B3,"Y")</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="38">
-        <f>DATEDIF(A3,B3,"Ym")</f>
+      <c r="C4" s="38">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D4" s="38">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E3" s="38">
-        <f>DATEDIF(A3,B3,"MD")</f>
+      <c r="E4" s="38">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">21 YEARS 1 MONTHS 5 DAYS </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="42">
+        <v>38182</v>
+      </c>
+      <c r="B5" s="42">
+        <v>45307</v>
+      </c>
+      <c r="C5" s="38">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="38">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">19 YEARS 6 MONTHS 2 DAYS </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="41">
+        <v>38579</v>
+      </c>
+      <c r="B6" s="42">
+        <v>45307</v>
+      </c>
+      <c r="C6" s="38">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="38">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F10" si="0">CONCATENATE(C3," YEARS ",D3," MONTHS ",E3," DAYS ")</f>
-        <v xml:space="preserve">0 YEARS 1 MONTHS 1 DAYS </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="49">
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">18 YEARS 5 MONTHS 1 DAYS </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="42">
         <v>37601</v>
       </c>
-      <c r="B4" s="49">
-        <v>45307</v>
-      </c>
-      <c r="C4" s="38">
-        <f>DATEDIF(A4,B4,"Y")</f>
-        <v>21</v>
-      </c>
-      <c r="D4" s="38">
-        <f>DATEDIF(A4,B4,"Ym")</f>
+      <c r="B7" s="42">
+        <v>38182</v>
+      </c>
+      <c r="C7" s="38">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="38">
-        <f>DATEDIF(A4,B4,"MD")</f>
-        <v>5</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="D7" s="38">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">1 YEARS 7 MONTHS 3 DAYS </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="42">
+        <v>37601</v>
+      </c>
+      <c r="B8" s="41">
+        <v>38579</v>
+      </c>
+      <c r="C8" s="38">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">21 YEARS 1 MONTHS 5 DAYS </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="49">
+        <v>2</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E8" s="38">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2 YEARS 8 MONTHS 4 DAYS </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="41">
+        <v>37520</v>
+      </c>
+      <c r="B9" s="42">
         <v>38182</v>
       </c>
-      <c r="B5" s="49">
-        <v>45307</v>
-      </c>
-      <c r="C5" s="38">
-        <f>DATEDIF(A5,B5,"Y")</f>
-        <v>19</v>
-      </c>
-      <c r="D5" s="38">
-        <f>DATEDIF(A5,B5,"Ym")</f>
-        <v>6</v>
-      </c>
-      <c r="E5" s="38">
-        <f>DATEDIF(A5,B5,"MD")</f>
-        <v>2</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="C9" s="38">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">19 YEARS 6 MONTHS 2 DAYS </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="48">
+        <v>1</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="38">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">1 YEARS 9 MONTHS 23 DAYS </v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="42">
+        <v>38182</v>
+      </c>
+      <c r="B10" s="41">
         <v>38579</v>
       </c>
-      <c r="B6" s="49">
-        <v>45307</v>
-      </c>
-      <c r="C6" s="38">
-        <f>DATEDIF(A6,B6,"Y")</f>
-        <v>18</v>
-      </c>
-      <c r="D6" s="38">
-        <f>DATEDIF(A6,B6,"Ym")</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="38">
-        <f>DATEDIF(A6,B6,"MD")</f>
+      <c r="C10" s="38">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">18 YEARS 5 MONTHS 1 DAYS </v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="49">
-        <v>37601</v>
-      </c>
-      <c r="B7" s="49">
-        <v>38182</v>
-      </c>
-      <c r="C7" s="38">
-        <f>DATEDIF(A7,B7,"Y")</f>
+      <c r="D10" s="38">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <f>DATEDIF(A7,B7,"Ym")</f>
-        <v>7</v>
-      </c>
-      <c r="E7" s="38">
-        <f>DATEDIF(A7,B7,"MD")</f>
-        <v>3</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">1 YEARS 7 MONTHS 3 DAYS </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="49">
-        <v>37601</v>
-      </c>
-      <c r="B8" s="48">
-        <v>38579</v>
-      </c>
-      <c r="C8" s="38">
-        <f>DATEDIF(A8,B8,"Y")</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="38">
-        <f>DATEDIF(A8,B8,"Ym")</f>
-        <v>8</v>
-      </c>
-      <c r="E8" s="38">
-        <f>DATEDIF(A8,B8,"MD")</f>
-        <v>4</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">2 YEARS 8 MONTHS 4 DAYS </v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="48">
-        <v>37520</v>
-      </c>
-      <c r="B9" s="49">
-        <v>38182</v>
-      </c>
-      <c r="C9" s="38">
-        <f>DATEDIF(A9,B9,"Y")</f>
+      <c r="E10" s="38">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <f>DATEDIF(A9,B9,"Ym")</f>
-        <v>9</v>
-      </c>
-      <c r="E9" s="38">
-        <f>DATEDIF(A9,B9,"MD")</f>
-        <v>23</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">1 YEARS 9 MONTHS 23 DAYS </v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="49">
-        <v>38182</v>
-      </c>
-      <c r="B10" s="48">
-        <v>38579</v>
-      </c>
-      <c r="C10" s="38">
-        <f>DATEDIF(A10,B10,"Y")</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="38">
-        <f>DATEDIF(A10,B10,"Ym")</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="38">
-        <f>DATEDIF(A10,B10,"MD")</f>
-        <v>1</v>
-      </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">1 YEARS 1 MONTHS 1 DAYS </v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="H15" s="53">
-        <v>0.51180555555555551</v>
-      </c>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39527,49 +38731,901 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE60372-6723-4DF7-93F0-8C0CE59EF63C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>1559</v>
       </c>
-      <c r="B1" s="55">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="48">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1560</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>1561</v>
       </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="56">
+        <v>7.4999999999970604E-2</v>
+      </c>
+      <c r="F3" s="47">
+        <f>PMT($B$3/12,$B$2*12,-$B$1,0)</f>
+        <v>13273.884783467092</v>
+      </c>
+      <c r="G3" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="I3" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="58">
+        <v>0.04</v>
+      </c>
+      <c r="K3" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="M3" s="58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N3" s="58">
+        <v>0.08</v>
+      </c>
+      <c r="O3" s="58">
+        <v>0.09</v>
+      </c>
+      <c r="P3" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>0.11</v>
+      </c>
+      <c r="R3" s="58">
+        <v>0.12</v>
+      </c>
+      <c r="S3" s="58">
+        <v>0.13</v>
+      </c>
+      <c r="T3" s="58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U3" s="58">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>1562</v>
       </c>
-      <c r="B4" s="54">
-        <f>PMT(B3/12,B2*12,-B1,0)</f>
-        <v>1250000</v>
+      <c r="B4" s="47">
+        <f>PMT($B$3/12,$B$2*12,-$B$1,0)</f>
+        <v>13273.884783467092</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="59">
+        <f t="dataTable" ref="G4:U19" dt2D="1" dtr="1" r1="B3" r2="B2"/>
+        <v>12819.167968036938</v>
+      </c>
+      <c r="H4" s="59">
+        <v>12888.546694468132</v>
+      </c>
+      <c r="I4" s="59">
+        <v>12958.135910048808</v>
+      </c>
+      <c r="J4" s="59">
+        <v>13027.935341920362</v>
+      </c>
+      <c r="K4" s="59">
+        <v>13097.94471363547</v>
+      </c>
+      <c r="L4" s="59">
+        <v>13168.163745183338</v>
+      </c>
+      <c r="M4" s="59">
+        <v>13238.592153015123</v>
+      </c>
+      <c r="N4" s="59">
+        <v>13309.229650069423</v>
+      </c>
+      <c r="O4" s="59">
+        <v>13380.075945797978</v>
+      </c>
+      <c r="P4" s="59">
+        <v>13451.130746191468</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>13522.393753805416</v>
+      </c>
+      <c r="R4" s="59">
+        <v>13593.864667786278</v>
+      </c>
+      <c r="S4" s="59">
+        <v>13665.543183897595</v>
+      </c>
+      <c r="T4" s="59">
+        <v>13737.42899454627</v>
+      </c>
+      <c r="U4" s="59">
+        <v>13809.52178880901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" s="47"/>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="59">
+        <v>6441.6182913226339</v>
+      </c>
+      <c r="H5" s="59">
+        <v>6508.6602953774754</v>
+      </c>
+      <c r="I5" s="59">
+        <v>6576.1254328720843</v>
+      </c>
+      <c r="J5" s="59">
+        <v>6644.0130921284299</v>
+      </c>
+      <c r="K5" s="59">
+        <v>6712.3226293124726</v>
+      </c>
+      <c r="L5" s="59">
+        <v>6781.0533686718045</v>
+      </c>
+      <c r="M5" s="59">
+        <v>6850.2046027812485</v>
+      </c>
+      <c r="N5" s="59">
+        <v>6919.7755927961753</v>
+      </c>
+      <c r="O5" s="59">
+        <v>6989.7655687134829</v>
+      </c>
+      <c r="P5" s="59">
+        <v>7060.1737296400252</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>7130.9992440683354</v>
+      </c>
+      <c r="R5" s="59">
+        <v>7202.2412501594999</v>
+      </c>
+      <c r="S5" s="59">
+        <v>7273.8988560330044</v>
+      </c>
+      <c r="T5" s="59">
+        <v>7345.9711400633832</v>
+      </c>
+      <c r="U5" s="59">
+        <v>7418.4571511835056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="59">
+        <v>4315.8391999727455</v>
+      </c>
+      <c r="H6" s="59">
+        <v>4382.314546065827</v>
+      </c>
+      <c r="I6" s="59">
+        <v>4449.4250734898069</v>
+      </c>
+      <c r="J6" s="59">
+        <v>4517.1697060470833</v>
+      </c>
+      <c r="K6" s="59">
+        <v>4585.5472570138181</v>
+      </c>
+      <c r="L6" s="59">
+        <v>4654.5564300879323</v>
+      </c>
+      <c r="M6" s="59">
+        <v>4724.1958204019074</v>
+      </c>
+      <c r="N6" s="59">
+        <v>4794.4639155989198</v>
+      </c>
+      <c r="O6" s="59">
+        <v>4865.3590969709248</v>
+      </c>
+      <c r="P6" s="59">
+        <v>4936.8796406571355</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>5009.0237189013123</v>
+      </c>
+      <c r="R6" s="59">
+        <v>5081.7894013662326</v>
+      </c>
+      <c r="S6" s="59">
+        <v>5155.174656503641</v>
+      </c>
+      <c r="T6" s="59">
+        <v>5229.1773529779202</v>
+      </c>
+      <c r="U6" s="59">
+        <v>5303.7952611417022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="59">
+        <v>3253.0027523112485</v>
+      </c>
+      <c r="H7" s="59">
+        <v>3319.3539168190769</v>
+      </c>
+      <c r="I7" s="59">
+        <v>3386.5520293646614</v>
+      </c>
+      <c r="J7" s="59">
+        <v>3454.5953601785668</v>
+      </c>
+      <c r="K7" s="59">
+        <v>3523.4819163089173</v>
+      </c>
+      <c r="L7" s="59">
+        <v>3593.2094443341489</v>
+      </c>
+      <c r="M7" s="59">
+        <v>3663.775433353765</v>
+      </c>
+      <c r="N7" s="59">
+        <v>3735.1771182498796</v>
+      </c>
+      <c r="O7" s="59">
+        <v>3807.411483211934</v>
+      </c>
+      <c r="P7" s="59">
+        <v>3880.4752655163197</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>3954.3649595522807</v>
+      </c>
+      <c r="R7" s="59">
+        <v>4029.0768210849483</v>
+      </c>
+      <c r="S7" s="59">
+        <v>4104.6068717460294</v>
+      </c>
+      <c r="T7" s="59">
+        <v>4180.9509037421776</v>
+      </c>
+      <c r="U7" s="59">
+        <v>4258.1044847708654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="59">
+        <v>2615.3433591542821</v>
+      </c>
+      <c r="H8" s="59">
+        <v>2681.74728814639</v>
+      </c>
+      <c r="I8" s="59">
+        <v>2749.2096716016599</v>
+      </c>
+      <c r="J8" s="59">
+        <v>2817.7278744557516</v>
+      </c>
+      <c r="K8" s="59">
+        <v>2887.2987475336731</v>
+      </c>
+      <c r="L8" s="59">
+        <v>2957.9186340024708</v>
+      </c>
+      <c r="M8" s="59">
+        <v>3029.5833766734791</v>
+      </c>
+      <c r="N8" s="59">
+        <v>3102.2883261272932</v>
+      </c>
+      <c r="O8" s="59">
+        <v>3176.0283496321631</v>
+      </c>
+      <c r="P8" s="59">
+        <v>3250.797840824046</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>3326.5907301144262</v>
+      </c>
+      <c r="R8" s="59">
+        <v>3403.4004957899715</v>
+      </c>
+      <c r="S8" s="59">
+        <v>3481.2201757662756</v>
+      </c>
+      <c r="T8" s="59">
+        <v>3560.0423799563177</v>
+      </c>
+      <c r="U8" s="59">
+        <v>3639.8593032128861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="59">
+        <v>2190.2724900668568</v>
+      </c>
+      <c r="H9" s="59">
+        <v>2256.8176089387434</v>
+      </c>
+      <c r="I9" s="59">
+        <v>2324.6324003741274</v>
+      </c>
+      <c r="J9" s="59">
+        <v>2393.713010099003</v>
+      </c>
+      <c r="K9" s="59">
+        <v>2464.0546972019924</v>
+      </c>
+      <c r="L9" s="59">
+        <v>2535.6518477012469</v>
+      </c>
+      <c r="M9" s="59">
+        <v>2608.4979902113514</v>
+      </c>
+      <c r="N9" s="59">
+        <v>2682.5858136287766</v>
+      </c>
+      <c r="O9" s="59">
+        <v>2757.9071867455905</v>
+      </c>
+      <c r="P9" s="59">
+        <v>2834.4531796928836</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>2912.2140871079878</v>
+      </c>
+      <c r="R9" s="59">
+        <v>2991.1794529129538</v>
+      </c>
+      <c r="S9" s="59">
+        <v>3071.3380965860192</v>
+      </c>
+      <c r="T9" s="59">
+        <v>3152.678140802926</v>
+      </c>
+      <c r="U9" s="59">
+        <v>3235.1870403209941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="59">
+        <v>1886.6807742567116</v>
+      </c>
+      <c r="H10" s="59">
+        <v>1953.4175619229052</v>
+      </c>
+      <c r="I10" s="59">
+        <v>2021.6349100156515</v>
+      </c>
+      <c r="J10" s="59">
+        <v>2091.3273694829468</v>
+      </c>
+      <c r="K10" s="59">
+        <v>2162.4880880017727</v>
+      </c>
+      <c r="L10" s="59">
+        <v>2235.1088360184608</v>
+      </c>
+      <c r="M10" s="59">
+        <v>2309.1800372749772</v>
+      </c>
+      <c r="N10" s="59">
+        <v>2384.6908036084396</v>
+      </c>
+      <c r="O10" s="59">
+        <v>2461.6289737858983</v>
+      </c>
+      <c r="P10" s="59">
+        <v>2539.9811561135439</v>
+      </c>
+      <c r="Q10" s="59">
+        <v>2619.73277453951</v>
+      </c>
+      <c r="R10" s="59">
+        <v>2700.8681179522946</v>
+      </c>
+      <c r="S10" s="59">
+        <v>2783.3703923626781</v>
+      </c>
+      <c r="T10" s="59">
+        <v>2867.2217756459577</v>
+      </c>
+      <c r="U10" s="59">
+        <v>2952.4034745133695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="59">
+        <v>1659.0135257978179</v>
+      </c>
+      <c r="H11" s="59">
+        <v>1725.9734800273263</v>
+      </c>
+      <c r="I11" s="59">
+        <v>1794.6245053201269</v>
+      </c>
+      <c r="J11" s="59">
+        <v>1864.9591212529515</v>
+      </c>
+      <c r="K11" s="59">
+        <v>1936.9677618549406</v>
+      </c>
+      <c r="L11" s="59">
+        <v>2010.6388221512982</v>
+      </c>
+      <c r="M11" s="59">
+        <v>2085.9587133169816</v>
+      </c>
+      <c r="N11" s="59">
+        <v>2162.9119259453551</v>
+      </c>
+      <c r="O11" s="59">
+        <v>2241.4811008750239</v>
+      </c>
+      <c r="P11" s="59">
+        <v>2321.6471069640625</v>
+      </c>
+      <c r="Q11" s="59">
+        <v>2403.3891251551399</v>
+      </c>
+      <c r="R11" s="59">
+        <v>2486.6847381380171</v>
+      </c>
+      <c r="S11" s="59">
+        <v>2571.510024887757</v>
+      </c>
+      <c r="T11" s="59">
+        <v>2657.8396593378225</v>
+      </c>
+      <c r="U11" s="59">
+        <v>2745.647012437013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="59">
+        <v>1481.9625853715777</v>
+      </c>
+      <c r="H12" s="59">
+        <v>1549.1666518395677</v>
+      </c>
+      <c r="I12" s="59">
+        <v>1618.2718736656436</v>
+      </c>
+      <c r="J12" s="59">
+        <v>1689.2682421621198</v>
+      </c>
+      <c r="K12" s="59">
+        <v>1762.1427947597981</v>
+      </c>
+      <c r="L12" s="59">
+        <v>1836.8796935316152</v>
+      </c>
+      <c r="M12" s="59">
+        <v>1913.4603189387237</v>
+      </c>
+      <c r="N12" s="59">
+        <v>1991.8633777471405</v>
+      </c>
+      <c r="O12" s="59">
+        <v>2072.0650239300003</v>
+      </c>
+      <c r="P12" s="59">
+        <v>2154.0389912577975</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>2237.7567361882684</v>
+      </c>
+      <c r="R12" s="59">
+        <v>2323.1875895995045</v>
+      </c>
+      <c r="S12" s="59">
+        <v>2410.2989158648497</v>
+      </c>
+      <c r="T12" s="59">
+        <v>2499.0562777458458</v>
+      </c>
+      <c r="U12" s="59">
+        <v>2589.4236055793881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="59">
+        <v>1340.3430569633376</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1407.8058437911789</v>
+      </c>
+      <c r="I13" s="59">
+        <v>1477.3793938853598</v>
+      </c>
+      <c r="J13" s="59">
+        <v>1549.0506139226868</v>
+      </c>
+      <c r="K13" s="59">
+        <v>1622.802383157851</v>
+      </c>
+      <c r="L13" s="59">
+        <v>1698.6136797072365</v>
+      </c>
+      <c r="M13" s="59">
+        <v>1776.4597320449482</v>
+      </c>
+      <c r="N13" s="59">
+        <v>1856.3121936369612</v>
+      </c>
+      <c r="O13" s="59">
+        <v>1938.139338378817</v>
+      </c>
+      <c r="P13" s="59">
+        <v>2021.9062742909532</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>2107.5751727664142</v>
+      </c>
+      <c r="R13" s="59">
+        <v>2195.1055105595869</v>
+      </c>
+      <c r="S13" s="59">
+        <v>2284.4543216515403</v>
+      </c>
+      <c r="T13" s="59">
+        <v>2375.5764561259912</v>
+      </c>
+      <c r="U13" s="59">
+        <v>2468.4248432370282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="59">
+        <v>1224.491824542647</v>
+      </c>
+      <c r="H14" s="59">
+        <v>1292.2239011525508</v>
+      </c>
+      <c r="I14" s="59">
+        <v>1362.2758221370898</v>
+      </c>
+      <c r="J14" s="59">
+        <v>1434.6307946063021</v>
+      </c>
+      <c r="K14" s="59">
+        <v>1509.2667017535434</v>
+      </c>
+      <c r="L14" s="59">
+        <v>1586.1562979084433</v>
+      </c>
+      <c r="M14" s="59">
+        <v>1665.2674431790599</v>
+      </c>
+      <c r="N14" s="59">
+        <v>1746.5633738399815</v>
+      </c>
+      <c r="O14" s="59">
+        <v>1830.0030041534833</v>
+      </c>
+      <c r="P14" s="59">
+        <v>1915.5412549493678</v>
+      </c>
+      <c r="Q14" s="59">
+        <v>2003.1294040407367</v>
+      </c>
+      <c r="R14" s="59">
+        <v>2092.7154534185693</v>
+      </c>
+      <c r="S14" s="59">
+        <v>2184.2445081449164</v>
+      </c>
+      <c r="T14" s="59">
+        <v>2277.6591619467513</v>
+      </c>
+      <c r="U14" s="59">
+        <v>2372.8998846911704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="59">
+        <v>1127.9668104034124</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1195.9760485319198</v>
+      </c>
+      <c r="I15" s="59">
+        <v>1266.5136348555004</v>
+      </c>
+      <c r="J15" s="59">
+        <v>1339.558404437814</v>
+      </c>
+      <c r="K15" s="59">
+        <v>1415.0823327618741</v>
+      </c>
+      <c r="L15" s="59">
+        <v>1493.0508267717064</v>
+      </c>
+      <c r="M15" s="59">
+        <v>1573.42307536879</v>
+      </c>
+      <c r="N15" s="59">
+        <v>1656.1524526073269</v>
+      </c>
+      <c r="O15" s="59">
+        <v>1741.1869660434211</v>
+      </c>
+      <c r="P15" s="59">
+        <v>1828.4697421258206</v>
+      </c>
+      <c r="Q15" s="59">
+        <v>1917.9395401767063</v>
+      </c>
+      <c r="R15" s="59">
+        <v>2009.5312863977103</v>
+      </c>
+      <c r="S15" s="59">
+        <v>2103.1766194382826</v>
+      </c>
+      <c r="T15" s="59">
+        <v>2198.8044393628279</v>
+      </c>
+      <c r="U15" s="59">
+        <v>2296.3414523261004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="59">
+        <v>1046.3081142701583</v>
+      </c>
+      <c r="H16" s="59">
+        <v>1114.6005132224307</v>
+      </c>
+      <c r="I16" s="59">
+        <v>1185.6291365114678</v>
+      </c>
+      <c r="J16" s="59">
+        <v>1259.3677182303072</v>
+      </c>
+      <c r="K16" s="59">
+        <v>1335.7813434964039</v>
+      </c>
+      <c r="L16" s="59">
+        <v>1414.826869936936</v>
+      </c>
+      <c r="M16" s="59">
+        <v>1496.4534351365185</v>
+      </c>
+      <c r="N16" s="59">
+        <v>1580.6030386966413</v>
+      </c>
+      <c r="O16" s="59">
+        <v>1667.2111863120581</v>
+      </c>
+      <c r="P16" s="59">
+        <v>1756.2075824516864</v>
+      </c>
+      <c r="Q16" s="59">
+        <v>1847.5168578458654</v>
+      </c>
+      <c r="R16" s="59">
+        <v>1941.0593180142544</v>
+      </c>
+      <c r="S16" s="59">
+        <v>2036.7516994883215</v>
+      </c>
+      <c r="T16" s="59">
+        <v>2134.5079211442257</v>
+      </c>
+      <c r="U16" s="59">
+        <v>2234.2398191104494</v>
+      </c>
+    </row>
+    <row r="17" spans="6:21">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="59">
+        <v>976.33009278734005</v>
+      </c>
+      <c r="H17" s="59">
+        <v>1044.9103099732224</v>
+      </c>
+      <c r="I17" s="59">
+        <v>1116.4339497748163</v>
+      </c>
+      <c r="J17" s="59">
+        <v>1190.8688611388359</v>
+      </c>
+      <c r="K17" s="59">
+        <v>1268.1721881164137</v>
+      </c>
+      <c r="L17" s="59">
+        <v>1348.2909645363522</v>
+      </c>
+      <c r="M17" s="59">
+        <v>1431.1628289458386</v>
+      </c>
+      <c r="N17" s="59">
+        <v>1516.716841483594</v>
+      </c>
+      <c r="O17" s="59">
+        <v>1604.8743825009165</v>
+      </c>
+      <c r="P17" s="59">
+        <v>1695.5501116739724</v>
+      </c>
+      <c r="Q17" s="59">
+        <v>1788.6529660512051</v>
+      </c>
+      <c r="R17" s="59">
+        <v>1884.087175909297</v>
+      </c>
+      <c r="S17" s="59">
+        <v>1981.7532783735767</v>
+      </c>
+      <c r="T17" s="59">
+        <v>2081.549110392823</v>
+      </c>
+      <c r="U17" s="59">
+        <v>2183.3707647262959</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="59">
+        <v>915.69660721295213</v>
+      </c>
+      <c r="H18" s="59">
+        <v>984.56831185332021</v>
+      </c>
+      <c r="I18" s="59">
+        <v>1056.5899096253247</v>
+      </c>
+      <c r="J18" s="59">
+        <v>1131.7225261821834</v>
+      </c>
+      <c r="K18" s="59">
+        <v>1209.9142489145631</v>
+      </c>
+      <c r="L18" s="59">
+        <v>1291.1009469141304</v>
+      </c>
+      <c r="M18" s="59">
+        <v>1375.2072544042135</v>
+      </c>
+      <c r="N18" s="59">
+        <v>1462.1476890254376</v>
+      </c>
+      <c r="O18" s="59">
+        <v>1551.8278737675309</v>
+      </c>
+      <c r="P18" s="59">
+        <v>1644.1458300934178</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>1738.9933098708159</v>
+      </c>
+      <c r="R18" s="59">
+        <v>1836.257135000016</v>
+      </c>
+      <c r="S18" s="59">
+        <v>1935.8205159368104</v>
+      </c>
+      <c r="T18" s="59">
+        <v>2037.5643234485767</v>
+      </c>
+      <c r="U18" s="59">
+        <v>2141.3682916791959</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="59">
+        <v>862.65555322705143</v>
+      </c>
+      <c r="H19" s="59">
+        <v>931.82166954271656</v>
+      </c>
+      <c r="I19" s="59">
+        <v>1004.3433721844278</v>
+      </c>
+      <c r="J19" s="59">
+        <v>1080.1741727571844</v>
+      </c>
+      <c r="K19" s="59">
+        <v>1159.2519248350886</v>
+      </c>
+      <c r="L19" s="59">
+        <v>1241.4999317442375</v>
+      </c>
+      <c r="M19" s="59">
+        <v>1326.8282708765107</v>
+      </c>
+      <c r="N19" s="59">
+        <v>1415.1352912288519</v>
+      </c>
+      <c r="O19" s="59">
+        <v>1506.3092374255646</v>
+      </c>
+      <c r="P19" s="59">
+        <v>1600.2299522964468</v>
+      </c>
+      <c r="Q19" s="59">
+        <v>1696.7706110355448</v>
+      </c>
+      <c r="R19" s="59">
+        <v>1795.799442810893</v>
+      </c>
+      <c r="S19" s="59">
+        <v>1897.1814000967013</v>
+      </c>
+      <c r="T19" s="59">
+        <v>2000.779741559405</v>
+      </c>
+      <c r="U19" s="59">
+        <v>2106.4575006296018</v>
       </c>
     </row>
   </sheetData>
